--- a/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9990857577830798</v>
+      </c>
+      <c r="D3">
         <v>1.553982548330634</v>
       </c>
-      <c r="D3">
-        <v>0.9990857577830801</v>
-      </c>
       <c r="E3">
+        <v>0.9990857577830798</v>
+      </c>
+      <c r="F3">
         <v>1.28450262092313</v>
       </c>
-      <c r="F3">
-        <v>1.553982548330634</v>
-      </c>
       <c r="G3">
-        <v>1.132429768820747</v>
+        <v>1.163066644385307</v>
       </c>
       <c r="H3">
         <v>0.9476214914675849</v>
       </c>
       <c r="I3">
-        <v>1.163066644385307</v>
+        <v>1.132429768820747</v>
       </c>
       <c r="J3">
-        <v>0.9990857577830801</v>
+        <v>1.553982548330634</v>
       </c>
       <c r="K3">
         <v>1.553982548330634</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.426745609194579</v>
+      </c>
+      <c r="D4">
         <v>2.257908883030181</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.426745609194579</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.46713170221712</v>
       </c>
-      <c r="F4">
-        <v>2.257908883030181</v>
-      </c>
       <c r="G4">
-        <v>1.287277982565926</v>
+        <v>1.6084623452637</v>
       </c>
       <c r="H4">
         <v>0.913995568451637</v>
       </c>
       <c r="I4">
-        <v>1.6084623452637</v>
+        <v>1.287277982565926</v>
       </c>
       <c r="J4">
-        <v>1.426745609194579</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="K4">
         <v>2.257908883030181</v>
@@ -738,34 +750,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.788942726557586</v>
+        <v>4.329798708146087</v>
       </c>
       <c r="D5">
+        <v>5.788942726557585</v>
+      </c>
+      <c r="E5">
         <v>4.329798708146087</v>
       </c>
-      <c r="E5">
-        <v>3.009826070164177</v>
-      </c>
       <c r="F5">
-        <v>5.788942726557586</v>
+        <v>3.009826070164176</v>
       </c>
       <c r="G5">
-        <v>1.779593934075252</v>
+        <v>3.441607340907065</v>
       </c>
       <c r="H5">
         <v>0.5628536053931825</v>
       </c>
       <c r="I5">
-        <v>3.441607340907065</v>
+        <v>1.779593934075252</v>
       </c>
       <c r="J5">
-        <v>4.329798708146087</v>
+        <v>5.788942726557585</v>
       </c>
       <c r="K5">
-        <v>5.788942726557586</v>
+        <v>5.788942726557585</v>
       </c>
       <c r="L5">
-        <v>3.009826070164177</v>
+        <v>3.009826070164176</v>
       </c>
       <c r="M5">
         <v>3.669812389155132</v>
@@ -780,16 +792,16 @@
         <v>4.376189168289283</v>
       </c>
       <c r="Q5">
-        <v>4.376189168289283</v>
+        <v>4.376189168289282</v>
       </c>
       <c r="R5">
-        <v>4.729377557856359</v>
+        <v>4.729377557856358</v>
       </c>
       <c r="S5">
-        <v>4.729377557856359</v>
+        <v>4.729377557856358</v>
       </c>
       <c r="T5">
-        <v>3.152103730873892</v>
+        <v>3.152103730873891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.26726157457939</v>
+        <v>0.0008781080227165643</v>
       </c>
       <c r="D6">
+        <v>12.26726157457938</v>
+      </c>
+      <c r="E6">
         <v>0.0008781080227165643</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.955766116013245</v>
       </c>
-      <c r="F6">
-        <v>12.26726157457939</v>
-      </c>
       <c r="G6">
-        <v>2.979810298962784</v>
+        <v>2.624273153792337</v>
       </c>
       <c r="H6">
         <v>0.2868482652550125</v>
       </c>
       <c r="I6">
-        <v>2.624273153792336</v>
+        <v>2.979810298962784</v>
       </c>
       <c r="J6">
-        <v>0.0008781080227165643</v>
+        <v>12.26726157457938</v>
       </c>
       <c r="K6">
-        <v>12.26726157457939</v>
+        <v>12.26726157457938</v>
       </c>
       <c r="L6">
         <v>5.955766116013245</v>
@@ -839,19 +851,19 @@
         <v>2.081164163096991</v>
       </c>
       <c r="P6">
-        <v>6.074635266205116</v>
+        <v>6.074635266205115</v>
       </c>
       <c r="Q6">
-        <v>6.074635266205116</v>
+        <v>6.074635266205115</v>
       </c>
       <c r="R6">
-        <v>7.622791843298684</v>
+        <v>7.622791843298682</v>
       </c>
       <c r="S6">
-        <v>7.622791843298684</v>
+        <v>7.622791843298682</v>
       </c>
       <c r="T6">
-        <v>4.019139586104248</v>
+        <v>4.019139586104247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,40 +874,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.098513076687626</v>
+        <v>1.053221701774032</v>
       </c>
       <c r="D7">
+        <v>1.098513076687625</v>
+      </c>
+      <c r="E7">
         <v>1.053221701774032</v>
       </c>
-      <c r="E7">
-        <v>1.025235421169693</v>
-      </c>
       <c r="F7">
-        <v>1.098513076687626</v>
+        <v>1.025235421169694</v>
       </c>
       <c r="G7">
+        <v>0.9756301300336446</v>
+      </c>
+      <c r="H7">
+        <v>0.974719125096462</v>
+      </c>
+      <c r="I7">
         <v>1.165543283459292</v>
       </c>
-      <c r="H7">
-        <v>0.9747191250964641</v>
-      </c>
-      <c r="I7">
-        <v>0.975630130033644</v>
-      </c>
       <c r="J7">
-        <v>1.053221701774032</v>
+        <v>1.098513076687625</v>
       </c>
       <c r="K7">
-        <v>1.098513076687626</v>
+        <v>1.098513076687625</v>
       </c>
       <c r="L7">
-        <v>1.025235421169693</v>
+        <v>1.025235421169694</v>
       </c>
       <c r="M7">
-        <v>1.039228561471862</v>
+        <v>1.039228561471863</v>
       </c>
       <c r="N7">
-        <v>1.039228561471862</v>
+        <v>1.039228561471863</v>
       </c>
       <c r="O7">
         <v>1.017725416013396</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.134717689941966</v>
+        <v>1.056398668267005</v>
       </c>
       <c r="D8">
+        <v>1.134717689941965</v>
+      </c>
+      <c r="E8">
         <v>1.056398668267005</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.024083686405646</v>
       </c>
-      <c r="F8">
-        <v>1.134717689941966</v>
-      </c>
       <c r="G8">
-        <v>1.325224991984</v>
+        <v>0.9751753798791825</v>
       </c>
       <c r="H8">
-        <v>0.9864970321458481</v>
+        <v>0.9864970321458477</v>
       </c>
       <c r="I8">
-        <v>0.9751753798791833</v>
+        <v>1.325224991984031</v>
       </c>
       <c r="J8">
-        <v>1.056398668267005</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="K8">
-        <v>1.134717689941966</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="L8">
         <v>1.024083686405646</v>
       </c>
       <c r="M8">
-        <v>1.040241177336326</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="N8">
-        <v>1.040241177336326</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="O8">
         <v>1.022326462272833</v>
       </c>
       <c r="P8">
-        <v>1.071733348204873</v>
+        <v>1.071733348204872</v>
       </c>
       <c r="Q8">
         <v>1.071733348204872</v>
       </c>
       <c r="R8">
-        <v>1.087479433639146</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="S8">
-        <v>1.087479433639146</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="T8">
-        <v>1.083682908103941</v>
+        <v>1.083682908103946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.025867677007143</v>
+      </c>
+      <c r="D9">
         <v>1.439563008279354</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.025867677007143</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.090684020009934</v>
       </c>
-      <c r="F9">
-        <v>1.439563008279354</v>
-      </c>
       <c r="G9">
-        <v>1.283112189978403</v>
+        <v>0.9407347552525896</v>
       </c>
       <c r="H9">
         <v>0.9903438234650859</v>
       </c>
       <c r="I9">
-        <v>0.9407347552525899</v>
+        <v>1.283112189978403</v>
       </c>
       <c r="J9">
-        <v>1.025867677007143</v>
+        <v>1.439563008279354</v>
       </c>
       <c r="K9">
         <v>1.439563008279354</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.30349019773202</v>
+      </c>
+      <c r="D10">
         <v>1.812730285268606</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.30349019773202</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.194820992744549</v>
       </c>
-      <c r="F10">
-        <v>1.812730285268606</v>
-      </c>
       <c r="G10">
-        <v>1.957963280333586</v>
+        <v>1.128973449048449</v>
       </c>
       <c r="H10">
         <v>0.9618629511670956</v>
       </c>
       <c r="I10">
-        <v>1.128973449048449</v>
+        <v>1.957963280333586</v>
       </c>
       <c r="J10">
-        <v>1.30349019773202</v>
+        <v>1.812730285268606</v>
       </c>
       <c r="K10">
         <v>1.812730285268606</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.134116964887141</v>
+      </c>
+      <c r="D11">
         <v>2.411028622854662</v>
       </c>
-      <c r="D11">
-        <v>1.13411696488714</v>
-      </c>
       <c r="E11">
+        <v>1.134116964887141</v>
+      </c>
+      <c r="F11">
         <v>1.414131261315171</v>
       </c>
-      <c r="F11">
-        <v>2.411028622854662</v>
-      </c>
       <c r="G11">
-        <v>1.947220384060003</v>
+        <v>0.8485220186035012</v>
       </c>
       <c r="H11">
         <v>0.6621942345859144</v>
       </c>
       <c r="I11">
-        <v>0.8485220186035011</v>
+        <v>1.947220384060003</v>
       </c>
       <c r="J11">
-        <v>1.13411696488714</v>
+        <v>2.411028622854662</v>
       </c>
       <c r="K11">
         <v>2.411028622854662</v>
@@ -1149,10 +1161,10 @@
         <v>1.070147486929409</v>
       </c>
       <c r="P11">
-        <v>1.653092283018991</v>
+        <v>1.653092283018992</v>
       </c>
       <c r="Q11">
-        <v>1.653092283018991</v>
+        <v>1.653092283018992</v>
       </c>
       <c r="R11">
         <v>1.842576367977909</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.01007267612593674</v>
+      </c>
+      <c r="D12">
         <v>1.64490734035368</v>
       </c>
-      <c r="D12">
-        <v>0.0100726761259367</v>
-      </c>
       <c r="E12">
-        <v>0.3478938515409029</v>
+        <v>0.01007267612593674</v>
       </c>
       <c r="F12">
+        <v>0.3478938515409021</v>
+      </c>
+      <c r="G12">
+        <v>1.244436136280289</v>
+      </c>
+      <c r="H12">
+        <v>1.137821563375036</v>
+      </c>
+      <c r="I12">
+        <v>0.001600312871969344</v>
+      </c>
+      <c r="J12">
         <v>1.64490734035368</v>
-      </c>
-      <c r="G12">
-        <v>0.001600312871969341</v>
-      </c>
-      <c r="H12">
-        <v>1.137821563375037</v>
-      </c>
-      <c r="I12">
-        <v>1.24443613628029</v>
-      </c>
-      <c r="J12">
-        <v>0.0100726761259367</v>
       </c>
       <c r="K12">
         <v>1.64490734035368</v>
       </c>
       <c r="L12">
-        <v>0.3478938515409029</v>
+        <v>0.3478938515409021</v>
       </c>
       <c r="M12">
-        <v>0.1789832638334198</v>
+        <v>0.1789832638334194</v>
       </c>
       <c r="N12">
-        <v>0.1789832638334198</v>
+        <v>0.1789832638334194</v>
       </c>
       <c r="O12">
-        <v>0.4985960303472921</v>
+        <v>0.4985960303472918</v>
       </c>
       <c r="P12">
-        <v>0.6676246226735065</v>
+        <v>0.6676246226735064</v>
       </c>
       <c r="Q12">
         <v>0.6676246226735064</v>
       </c>
       <c r="R12">
-        <v>0.9119453020935497</v>
+        <v>0.9119453020935498</v>
       </c>
       <c r="S12">
-        <v>0.9119453020935497</v>
+        <v>0.9119453020935498</v>
       </c>
       <c r="T12">
-        <v>0.7311219800913026</v>
+        <v>0.7311219800913024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.928483279126136</v>
+        <v>1.650080278019375</v>
       </c>
       <c r="D13">
-        <v>1.650080278019377</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="E13">
-        <v>1.633503072583993</v>
+        <v>1.650080278019375</v>
       </c>
       <c r="F13">
-        <v>1.928483279126136</v>
+        <v>1.633503072583994</v>
       </c>
       <c r="G13">
+        <v>1.436313605266379</v>
+      </c>
+      <c r="H13">
+        <v>0.5303135410767813</v>
+      </c>
+      <c r="I13">
         <v>0.05656664647616127</v>
       </c>
-      <c r="H13">
-        <v>0.5303135410767834</v>
-      </c>
-      <c r="I13">
-        <v>1.436313605266379</v>
-      </c>
       <c r="J13">
-        <v>1.650080278019377</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="K13">
-        <v>1.928483279126136</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="L13">
-        <v>1.633503072583993</v>
+        <v>1.633503072583994</v>
       </c>
       <c r="M13">
         <v>1.641791675301685</v>
@@ -1270,7 +1282,7 @@
         <v>1.641791675301685</v>
       </c>
       <c r="O13">
-        <v>1.271298963893385</v>
+        <v>1.271298963893383</v>
       </c>
       <c r="P13">
         <v>1.737355543243169</v>
@@ -1285,7 +1297,7 @@
         <v>1.785137477213911</v>
       </c>
       <c r="T13">
-        <v>1.205876737091472</v>
+        <v>1.205876737091471</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0005954403700143319</v>
+        <v>0.2715115605015893</v>
       </c>
       <c r="D14">
-        <v>0.2715115605015896</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="E14">
-        <v>0.9358572889879071</v>
+        <v>0.2715115605015893</v>
       </c>
       <c r="F14">
-        <v>-0.0005954403700143319</v>
+        <v>0.9358572889879052</v>
       </c>
       <c r="G14">
-        <v>0.00157810109718443</v>
+        <v>0.1463567321083623</v>
       </c>
       <c r="H14">
         <v>1.878268911550419</v>
       </c>
       <c r="I14">
-        <v>0.1463567321083624</v>
+        <v>0.001578101097184428</v>
       </c>
       <c r="J14">
-        <v>0.2715115605015896</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="K14">
-        <v>-0.0005954403700143319</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="L14">
-        <v>0.9358572889879071</v>
+        <v>0.9358572889879052</v>
       </c>
       <c r="M14">
-        <v>0.6036844247447484</v>
+        <v>0.6036844247447473</v>
       </c>
       <c r="N14">
-        <v>0.6036844247447484</v>
+        <v>0.6036844247447473</v>
       </c>
       <c r="O14">
-        <v>1.028545920346639</v>
+        <v>1.028545920346638</v>
       </c>
       <c r="P14">
-        <v>0.4022578030398274</v>
+        <v>0.4022578030398267</v>
       </c>
       <c r="Q14">
-        <v>0.4022578030398274</v>
+        <v>0.4022578030398267</v>
       </c>
       <c r="R14">
-        <v>0.301544492187367</v>
+        <v>0.3015444921873665</v>
       </c>
       <c r="S14">
-        <v>0.301544492187367</v>
+        <v>0.3015444921873665</v>
       </c>
       <c r="T14">
-        <v>0.538829525645908</v>
+        <v>0.5388295256459076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,34 +1370,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0265508173516642</v>
+        <v>0.1784394793583272</v>
       </c>
       <c r="D15">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="E15">
         <v>0.1784394793583272</v>
       </c>
-      <c r="E15">
-        <v>0.9766788392670578</v>
-      </c>
       <c r="F15">
-        <v>0.0265508173516642</v>
+        <v>0.976678839267058</v>
       </c>
       <c r="G15">
-        <v>0.070398530168358</v>
+        <v>0.1391531486644672</v>
       </c>
       <c r="H15">
         <v>1.42463830941264</v>
       </c>
       <c r="I15">
-        <v>0.1391531486644672</v>
+        <v>0.070398530168358</v>
       </c>
       <c r="J15">
-        <v>0.1784394793583272</v>
+        <v>0.02655081735166421</v>
       </c>
       <c r="K15">
-        <v>0.0265508173516642</v>
+        <v>0.02655081735166421</v>
       </c>
       <c r="L15">
-        <v>0.9766788392670578</v>
+        <v>0.976678839267058</v>
       </c>
       <c r="M15">
         <v>0.5775591593126925</v>
@@ -1394,19 +1406,19 @@
         <v>0.5775591593126925</v>
       </c>
       <c r="O15">
-        <v>0.8599188760126752</v>
+        <v>0.8599188760126749</v>
       </c>
       <c r="P15">
         <v>0.3938897119923497</v>
       </c>
       <c r="Q15">
-        <v>0.3938897119923497</v>
+        <v>0.3938897119923498</v>
       </c>
       <c r="R15">
-        <v>0.3020549883321783</v>
+        <v>0.3020549883321784</v>
       </c>
       <c r="S15">
-        <v>0.3020549883321783</v>
+        <v>0.3020549883321784</v>
       </c>
       <c r="T15">
         <v>0.4693098540370859</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.011169514599891</v>
+        <v>0.2119602873540042</v>
       </c>
       <c r="D16">
-        <v>1.07342904405002</v>
+        <v>8.778493172057738</v>
       </c>
       <c r="E16">
-        <v>1.062329493015962</v>
+        <v>0.2119602873540042</v>
       </c>
       <c r="F16">
-        <v>1.011169514599891</v>
+        <v>4.524552641034224</v>
       </c>
       <c r="G16">
-        <v>1.128859107152328</v>
+        <v>4.369486760727419</v>
       </c>
       <c r="H16">
-        <v>0.9748766505202772</v>
+        <v>0.1965075155754401</v>
       </c>
       <c r="I16">
-        <v>0.9739767656684361</v>
+        <v>1.60795188070266</v>
       </c>
       <c r="J16">
-        <v>1.07342904405002</v>
+        <v>8.778493172057738</v>
       </c>
       <c r="K16">
-        <v>1.011169514599891</v>
+        <v>8.778493172057738</v>
       </c>
       <c r="L16">
-        <v>1.062329493015962</v>
+        <v>4.524552641034224</v>
       </c>
       <c r="M16">
-        <v>1.067879268532991</v>
+        <v>2.368256464194114</v>
       </c>
       <c r="N16">
-        <v>1.067879268532991</v>
+        <v>2.368256464194114</v>
       </c>
       <c r="O16">
-        <v>1.036878395862087</v>
+        <v>1.644340147987889</v>
       </c>
       <c r="P16">
-        <v>1.048976017221958</v>
+        <v>4.505002033481989</v>
       </c>
       <c r="Q16">
-        <v>1.048976017221958</v>
+        <v>4.505002033481989</v>
       </c>
       <c r="R16">
-        <v>1.039524391566441</v>
+        <v>5.573374818125926</v>
       </c>
       <c r="S16">
-        <v>1.039524391566441</v>
+        <v>5.573374818125926</v>
       </c>
       <c r="T16">
-        <v>1.037440095834486</v>
+        <v>3.28149204290858</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.304066053228971</v>
+        <v>0.4159896533444055</v>
       </c>
       <c r="D17">
-        <v>1.09800026459854</v>
+        <v>6.214821734891478</v>
       </c>
       <c r="E17">
-        <v>0.876215411505067</v>
+        <v>0.4159896533444055</v>
       </c>
       <c r="F17">
-        <v>1.304066053228971</v>
+        <v>3.362672916152877</v>
       </c>
       <c r="G17">
-        <v>1.081958118412851</v>
+        <v>3.225970364027005</v>
       </c>
       <c r="H17">
-        <v>0.9808973613674228</v>
+        <v>0.3910135312504726</v>
       </c>
       <c r="I17">
-        <v>1.035844316920172</v>
+        <v>3.308385540088532</v>
       </c>
       <c r="J17">
-        <v>1.09800026459854</v>
+        <v>6.214821734891478</v>
       </c>
       <c r="K17">
-        <v>1.304066053228971</v>
+        <v>6.214821734891478</v>
       </c>
       <c r="L17">
-        <v>0.876215411505067</v>
+        <v>3.362672916152877</v>
       </c>
       <c r="M17">
-        <v>0.9871078380518032</v>
+        <v>1.889331284748641</v>
       </c>
       <c r="N17">
-        <v>0.9871078380518032</v>
+        <v>1.889331284748641</v>
       </c>
       <c r="O17">
-        <v>0.9850376791570098</v>
+        <v>1.389892033582585</v>
       </c>
       <c r="P17">
-        <v>1.092760576444192</v>
+        <v>3.331161434796253</v>
       </c>
       <c r="Q17">
-        <v>1.092760576444193</v>
+        <v>3.331161434796254</v>
       </c>
       <c r="R17">
-        <v>1.145586945640387</v>
+        <v>4.05207650982006</v>
       </c>
       <c r="S17">
-        <v>1.145586945640387</v>
+        <v>4.05207650982006</v>
       </c>
       <c r="T17">
-        <v>1.062830254338837</v>
+        <v>2.819808956625795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.656087780184084</v>
+        <v>1.25231797601389</v>
       </c>
       <c r="D18">
-        <v>2.416547433521542</v>
+        <v>1.57406870002671</v>
       </c>
       <c r="E18">
-        <v>1.187525762121693</v>
+        <v>1.25231797601389</v>
       </c>
       <c r="F18">
-        <v>3.656087780184084</v>
+        <v>1.393083210544965</v>
       </c>
       <c r="G18">
-        <v>1.264296465706779</v>
+        <v>0.949391198587576</v>
       </c>
       <c r="H18">
-        <v>1.0278697793453</v>
+        <v>0.7067139226533503</v>
       </c>
       <c r="I18">
-        <v>1.540380075412658</v>
+        <v>6.843679553989984</v>
       </c>
       <c r="J18">
-        <v>2.416547433521542</v>
+        <v>1.57406870002671</v>
       </c>
       <c r="K18">
-        <v>3.656087780184084</v>
+        <v>1.57406870002671</v>
       </c>
       <c r="L18">
-        <v>1.187525762121693</v>
+        <v>1.393083210544965</v>
       </c>
       <c r="M18">
-        <v>1.802036597821618</v>
+        <v>1.322700593279428</v>
       </c>
       <c r="N18">
-        <v>1.802036597821618</v>
+        <v>1.322700593279428</v>
       </c>
       <c r="O18">
-        <v>1.543980991662845</v>
+        <v>1.117371703070735</v>
       </c>
       <c r="P18">
-        <v>2.420053658609107</v>
+        <v>1.406489962195188</v>
       </c>
       <c r="Q18">
-        <v>2.420053658609107</v>
+        <v>1.406489962195188</v>
       </c>
       <c r="R18">
-        <v>2.729062189002851</v>
+        <v>1.448384646653069</v>
       </c>
       <c r="S18">
-        <v>2.729062189002851</v>
+        <v>1.448384646653069</v>
       </c>
       <c r="T18">
-        <v>1.848784549382009</v>
+        <v>2.119875760302746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>2.747972793211336</v>
+      </c>
+      <c r="D19">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="E19">
+        <v>2.747972793211336</v>
+      </c>
+      <c r="F19">
+        <v>0.8974432275838099</v>
+      </c>
+      <c r="G19">
+        <v>1.25676224979306</v>
+      </c>
+      <c r="H19">
+        <v>0.5303148106391226</v>
+      </c>
+      <c r="I19">
+        <v>9.048314384715422</v>
+      </c>
+      <c r="J19">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="K19">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="L19">
+        <v>0.8974432275838099</v>
+      </c>
+      <c r="M19">
+        <v>1.822708010397573</v>
+      </c>
+      <c r="N19">
+        <v>1.822708010397573</v>
+      </c>
+      <c r="O19">
+        <v>1.391910277144756</v>
+      </c>
+      <c r="P19">
+        <v>1.682938250435174</v>
+      </c>
+      <c r="Q19">
+        <v>1.682938250435173</v>
+      </c>
+      <c r="R19">
+        <v>1.613053370453974</v>
+      </c>
+      <c r="S19">
+        <v>1.613053370453974</v>
+      </c>
+      <c r="T19">
+        <v>2.647367699408854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.07342904405002</v>
+      </c>
+      <c r="D20">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="E20">
+        <v>1.07342904405002</v>
+      </c>
+      <c r="F20">
+        <v>1.062329493015965</v>
+      </c>
+      <c r="G20">
+        <v>0.9739767656684389</v>
+      </c>
+      <c r="H20">
+        <v>0.9748766505202768</v>
+      </c>
+      <c r="I20">
+        <v>1.128859107152328</v>
+      </c>
+      <c r="J20">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="K20">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="L20">
+        <v>1.062329493015965</v>
+      </c>
+      <c r="M20">
+        <v>1.067879268532993</v>
+      </c>
+      <c r="N20">
+        <v>1.067879268532993</v>
+      </c>
+      <c r="O20">
+        <v>1.036878395862087</v>
+      </c>
+      <c r="P20">
+        <v>1.04897601722196</v>
+      </c>
+      <c r="Q20">
+        <v>1.04897601722196</v>
+      </c>
+      <c r="R20">
+        <v>1.039524391566443</v>
+      </c>
+      <c r="S20">
+        <v>1.039524391566443</v>
+      </c>
+      <c r="T20">
+        <v>1.037440095834487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.098000264598538</v>
+      </c>
+      <c r="D21">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="E21">
+        <v>1.098000264598538</v>
+      </c>
+      <c r="F21">
+        <v>0.8762154115050692</v>
+      </c>
+      <c r="G21">
+        <v>1.035844316920174</v>
+      </c>
+      <c r="H21">
+        <v>0.9808973613674223</v>
+      </c>
+      <c r="I21">
+        <v>1.08195811841285</v>
+      </c>
+      <c r="J21">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="K21">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="L21">
+        <v>0.8762154115050692</v>
+      </c>
+      <c r="M21">
+        <v>0.9871078380518037</v>
+      </c>
+      <c r="N21">
+        <v>0.9871078380518037</v>
+      </c>
+      <c r="O21">
+        <v>0.9850376791570099</v>
+      </c>
+      <c r="P21">
+        <v>1.092760576444194</v>
+      </c>
+      <c r="Q21">
+        <v>1.092760576444194</v>
+      </c>
+      <c r="R21">
+        <v>1.145586945640388</v>
+      </c>
+      <c r="S21">
+        <v>1.145586945640388</v>
+      </c>
+      <c r="T21">
+        <v>1.062830254338838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.416547433521547</v>
+      </c>
+      <c r="D22">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="E22">
+        <v>2.416547433521547</v>
+      </c>
+      <c r="F22">
+        <v>1.187525762121703</v>
+      </c>
+      <c r="G22">
+        <v>1.540380075412664</v>
+      </c>
+      <c r="H22">
+        <v>1.027869779345301</v>
+      </c>
+      <c r="I22">
+        <v>1.264296465706769</v>
+      </c>
+      <c r="J22">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="K22">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="L22">
+        <v>1.187525762121703</v>
+      </c>
+      <c r="M22">
+        <v>1.802036597821625</v>
+      </c>
+      <c r="N22">
+        <v>1.802036597821625</v>
+      </c>
+      <c r="O22">
+        <v>1.54398099166285</v>
+      </c>
+      <c r="P22">
+        <v>2.420053658609113</v>
+      </c>
+      <c r="Q22">
+        <v>2.420053658609114</v>
+      </c>
+      <c r="R22">
+        <v>2.729062189002858</v>
+      </c>
+      <c r="S22">
+        <v>2.729062189002858</v>
+      </c>
+      <c r="T22">
+        <v>1.848784549382012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>5.322524380166638</v>
+      </c>
+      <c r="D23">
         <v>0.1926780518396127</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>5.322524380166638</v>
       </c>
-      <c r="E19">
-        <v>0.9414491003076833</v>
-      </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9414491003076831</v>
+      </c>
+      <c r="G23">
+        <v>1.976374789312769</v>
+      </c>
+      <c r="H23">
+        <v>0.4298813095927798</v>
+      </c>
+      <c r="I23">
+        <v>2.1899630932224</v>
+      </c>
+      <c r="J23">
         <v>0.1926780518396127</v>
       </c>
-      <c r="G19">
-        <v>2.1899630932224</v>
-      </c>
-      <c r="H19">
-        <v>0.4298813095927798</v>
-      </c>
-      <c r="I19">
-        <v>1.976374789312769</v>
-      </c>
-      <c r="J19">
-        <v>5.322524380166638</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.1926780518396127</v>
       </c>
-      <c r="L19">
-        <v>0.9414491003076833</v>
-      </c>
-      <c r="M19">
+      <c r="L23">
+        <v>0.9414491003076831</v>
+      </c>
+      <c r="M23">
         <v>3.131986740237161</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>3.131986740237161</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>2.231284930022367</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>2.152217177437978</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>2.152217177437978</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.662332396038387</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.662332396038387</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.842145120740314</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9990857577830798</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="D3">
-        <v>1.553982548330634</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="E3">
-        <v>0.9990857577830798</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="F3">
-        <v>1.28450262092313</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="G3">
-        <v>1.163066644385307</v>
+        <v>1.029988029642925</v>
       </c>
       <c r="H3">
-        <v>0.9476214914675849</v>
+        <v>0.7337175539677155</v>
       </c>
       <c r="I3">
-        <v>1.132429768820747</v>
+        <v>10.80002703437949</v>
       </c>
       <c r="J3">
-        <v>1.553982548330634</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="K3">
-        <v>1.553982548330634</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="L3">
-        <v>1.28450262092313</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="M3">
-        <v>1.141794189353105</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="N3">
-        <v>1.141794189353105</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="O3">
-        <v>1.077069956724598</v>
+        <v>0.8715618120419548</v>
       </c>
       <c r="P3">
-        <v>1.279190309012281</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="Q3">
-        <v>1.279190309012281</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="R3">
-        <v>1.347888368841869</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="S3">
-        <v>1.347888368841869</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="T3">
-        <v>1.18011480528508</v>
+        <v>2.618022937829585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.426745609194579</v>
+        <v>0.8022511425119219</v>
       </c>
       <c r="D4">
-        <v>2.257908883030181</v>
+        <v>1.095326879428844</v>
       </c>
       <c r="E4">
-        <v>1.426745609194579</v>
+        <v>0.8022511425119219</v>
       </c>
       <c r="F4">
-        <v>1.46713170221712</v>
+        <v>1.067585456484933</v>
       </c>
       <c r="G4">
-        <v>1.6084623452637</v>
+        <v>0.9802127686671882</v>
       </c>
       <c r="H4">
-        <v>0.913995568451637</v>
+        <v>0.7591910118084516</v>
       </c>
       <c r="I4">
-        <v>1.287277982565926</v>
+        <v>8.545561988873342</v>
       </c>
       <c r="J4">
-        <v>2.257908883030181</v>
+        <v>1.095326879428844</v>
       </c>
       <c r="K4">
-        <v>2.257908883030181</v>
+        <v>1.095326879428844</v>
       </c>
       <c r="L4">
-        <v>1.46713170221712</v>
+        <v>1.067585456484933</v>
       </c>
       <c r="M4">
-        <v>1.446938655705849</v>
+        <v>0.9349182994984273</v>
       </c>
       <c r="N4">
-        <v>1.446938655705849</v>
+        <v>0.9349182994984273</v>
       </c>
       <c r="O4">
-        <v>1.269290959954445</v>
+        <v>0.876342536935102</v>
       </c>
       <c r="P4">
-        <v>1.71726206481396</v>
+        <v>0.9883878261418996</v>
       </c>
       <c r="Q4">
-        <v>1.71726206481396</v>
+        <v>0.9883878261418996</v>
       </c>
       <c r="R4">
-        <v>1.852423769368015</v>
+        <v>1.015122589463636</v>
       </c>
       <c r="S4">
-        <v>1.852423769368015</v>
+        <v>1.015122589463636</v>
       </c>
       <c r="T4">
-        <v>1.493587015120523</v>
+        <v>2.208354874629114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.329798708146087</v>
+        <v>0.2582305336406903</v>
       </c>
       <c r="D5">
-        <v>5.788942726557585</v>
+        <v>2.420366794243396</v>
       </c>
       <c r="E5">
-        <v>4.329798708146087</v>
+        <v>0.2582305336406903</v>
       </c>
       <c r="F5">
-        <v>3.009826070164176</v>
+        <v>2.353001818673855</v>
       </c>
       <c r="G5">
-        <v>3.441607340907065</v>
+        <v>1.619512059821616</v>
       </c>
       <c r="H5">
-        <v>0.5628536053931825</v>
+        <v>0.540385421673801</v>
       </c>
       <c r="I5">
-        <v>1.779593934075252</v>
+        <v>20.04361753170593</v>
       </c>
       <c r="J5">
-        <v>5.788942726557585</v>
+        <v>2.420366794243396</v>
       </c>
       <c r="K5">
-        <v>5.788942726557585</v>
+        <v>2.420366794243396</v>
       </c>
       <c r="L5">
-        <v>3.009826070164176</v>
+        <v>2.353001818673855</v>
       </c>
       <c r="M5">
-        <v>3.669812389155132</v>
+        <v>1.305616176157273</v>
       </c>
       <c r="N5">
-        <v>3.669812389155132</v>
+        <v>1.305616176157273</v>
       </c>
       <c r="O5">
-        <v>2.634159461234482</v>
+        <v>1.050539257996115</v>
       </c>
       <c r="P5">
-        <v>4.376189168289283</v>
+        <v>1.677199715519314</v>
       </c>
       <c r="Q5">
-        <v>4.376189168289282</v>
+        <v>1.677199715519314</v>
       </c>
       <c r="R5">
-        <v>4.729377557856358</v>
+        <v>1.862991485200334</v>
       </c>
       <c r="S5">
-        <v>4.729377557856358</v>
+        <v>1.862991485200334</v>
       </c>
       <c r="T5">
-        <v>3.152103730873891</v>
+        <v>4.539185693293214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.0008781080227165643</v>
+        <v>0.1948545405994089</v>
       </c>
       <c r="D6">
-        <v>12.26726157457938</v>
+        <v>4.91711557097159</v>
       </c>
       <c r="E6">
-        <v>0.0008781080227165643</v>
+        <v>0.1948545405994089</v>
       </c>
       <c r="F6">
-        <v>5.955766116013245</v>
+        <v>2.538196979118748</v>
       </c>
       <c r="G6">
-        <v>2.624273153792337</v>
+        <v>0.3301167231988636</v>
       </c>
       <c r="H6">
-        <v>0.2868482652550125</v>
+        <v>0.5800149235869307</v>
       </c>
       <c r="I6">
-        <v>2.979810298962784</v>
+        <v>27.17642134910155</v>
       </c>
       <c r="J6">
-        <v>12.26726157457938</v>
+        <v>4.91711557097159</v>
       </c>
       <c r="K6">
-        <v>12.26726157457938</v>
+        <v>4.91711557097159</v>
       </c>
       <c r="L6">
-        <v>5.955766116013245</v>
+        <v>2.538196979118748</v>
       </c>
       <c r="M6">
-        <v>2.978322112017981</v>
+        <v>1.366525759859079</v>
       </c>
       <c r="N6">
-        <v>2.978322112017981</v>
+        <v>1.366525759859079</v>
       </c>
       <c r="O6">
-        <v>2.081164163096991</v>
+        <v>1.104355481101696</v>
       </c>
       <c r="P6">
-        <v>6.074635266205115</v>
+        <v>2.550055696896582</v>
       </c>
       <c r="Q6">
-        <v>6.074635266205115</v>
+        <v>2.550055696896582</v>
       </c>
       <c r="R6">
-        <v>7.622791843298682</v>
+        <v>3.141820665415334</v>
       </c>
       <c r="S6">
-        <v>7.622791843298682</v>
+        <v>3.141820665415334</v>
       </c>
       <c r="T6">
-        <v>4.019139586104247</v>
+        <v>5.956120014429516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.053221701774032</v>
+        <v>-0.000563447746245763</v>
       </c>
       <c r="D7">
-        <v>1.098513076687625</v>
+        <v>4.292641919660049</v>
       </c>
       <c r="E7">
-        <v>1.053221701774032</v>
+        <v>-0.000563447746245763</v>
       </c>
       <c r="F7">
-        <v>1.025235421169694</v>
+        <v>0.00319726565677337</v>
       </c>
       <c r="G7">
-        <v>0.9756301300336446</v>
+        <v>1.812310641481806</v>
       </c>
       <c r="H7">
-        <v>0.974719125096462</v>
+        <v>0.001594690938646668</v>
       </c>
       <c r="I7">
-        <v>1.165543283459292</v>
+        <v>0.6843646847987043</v>
       </c>
       <c r="J7">
-        <v>1.098513076687625</v>
+        <v>4.292641919660049</v>
       </c>
       <c r="K7">
-        <v>1.098513076687625</v>
+        <v>4.292641919660049</v>
       </c>
       <c r="L7">
-        <v>1.025235421169694</v>
+        <v>0.00319726565677337</v>
       </c>
       <c r="M7">
-        <v>1.039228561471863</v>
+        <v>0.001316908955263803</v>
       </c>
       <c r="N7">
-        <v>1.039228561471863</v>
+        <v>0.001316908955263803</v>
       </c>
       <c r="O7">
-        <v>1.017725416013396</v>
+        <v>0.001409502949724758</v>
       </c>
       <c r="P7">
-        <v>1.058990066543784</v>
+        <v>1.431758579190192</v>
       </c>
       <c r="Q7">
-        <v>1.058990066543784</v>
+        <v>1.431758579190192</v>
       </c>
       <c r="R7">
-        <v>1.068870819079744</v>
+        <v>2.146979414307657</v>
       </c>
       <c r="S7">
-        <v>1.068870819079744</v>
+        <v>2.146979414307657</v>
       </c>
       <c r="T7">
-        <v>1.048810456370125</v>
+        <v>1.132257625798289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.056398668267005</v>
+        <v>-0.000509324295209881</v>
       </c>
       <c r="D8">
-        <v>1.134717689941965</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="E8">
-        <v>1.056398668267005</v>
+        <v>-0.000509324295209881</v>
       </c>
       <c r="F8">
-        <v>1.024083686405646</v>
+        <v>0.003117442238509692</v>
       </c>
       <c r="G8">
-        <v>0.9751753798791825</v>
+        <v>1.799473772344342</v>
       </c>
       <c r="H8">
-        <v>0.9864970321458477</v>
+        <v>0.001563311327373341</v>
       </c>
       <c r="I8">
-        <v>1.325224991984031</v>
+        <v>1.039923788402676</v>
       </c>
       <c r="J8">
-        <v>1.134717689941965</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="K8">
-        <v>1.134717689941965</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="L8">
-        <v>1.024083686405646</v>
+        <v>0.003117442238509692</v>
       </c>
       <c r="M8">
-        <v>1.040241177336325</v>
+        <v>0.001304058971649906</v>
       </c>
       <c r="N8">
-        <v>1.040241177336325</v>
+        <v>0.001304058971649906</v>
       </c>
       <c r="O8">
-        <v>1.022326462272833</v>
+        <v>0.001390476423557718</v>
       </c>
       <c r="P8">
-        <v>1.071733348204872</v>
+        <v>1.498740621047661</v>
       </c>
       <c r="Q8">
-        <v>1.071733348204872</v>
+        <v>1.498740621047661</v>
       </c>
       <c r="R8">
-        <v>1.087479433639145</v>
+        <v>2.247458902085667</v>
       </c>
       <c r="S8">
-        <v>1.087479433639145</v>
+        <v>2.247458902085667</v>
       </c>
       <c r="T8">
-        <v>1.083682908103946</v>
+        <v>1.222863789202896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.025867677007143</v>
+        <v>-0.0004486845824921732</v>
       </c>
       <c r="D9">
-        <v>1.439563008279354</v>
+        <v>4.510382985561539</v>
       </c>
       <c r="E9">
-        <v>1.025867677007143</v>
+        <v>-0.0004486845824921732</v>
       </c>
       <c r="F9">
-        <v>1.090684020009934</v>
+        <v>0.003034015955848206</v>
       </c>
       <c r="G9">
-        <v>0.9407347552525896</v>
+        <v>1.785514989203712</v>
       </c>
       <c r="H9">
-        <v>0.9903438234650859</v>
+        <v>0.001534346820046604</v>
       </c>
       <c r="I9">
-        <v>1.283112189978403</v>
+        <v>1.710817101809449</v>
       </c>
       <c r="J9">
-        <v>1.439563008279354</v>
+        <v>4.510382985561539</v>
       </c>
       <c r="K9">
-        <v>1.439563008279354</v>
+        <v>4.510382985561539</v>
       </c>
       <c r="L9">
-        <v>1.090684020009934</v>
+        <v>0.003034015955848206</v>
       </c>
       <c r="M9">
-        <v>1.058275848508539</v>
+        <v>0.001292665686678016</v>
       </c>
       <c r="N9">
-        <v>1.058275848508539</v>
+        <v>0.001292665686678016</v>
       </c>
       <c r="O9">
-        <v>1.035631840160721</v>
+        <v>0.001373226064467545</v>
       </c>
       <c r="P9">
-        <v>1.185371568432144</v>
+        <v>1.504322772311632</v>
       </c>
       <c r="Q9">
-        <v>1.185371568432144</v>
+        <v>1.504322772311632</v>
       </c>
       <c r="R9">
-        <v>1.248919428393946</v>
+        <v>2.255837825624108</v>
       </c>
       <c r="S9">
-        <v>1.248919428393946</v>
+        <v>2.255837825624108</v>
       </c>
       <c r="T9">
-        <v>1.128384245665419</v>
+        <v>1.335139125794684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.30349019773202</v>
+        <v>-0.0003311770117550819</v>
       </c>
       <c r="D10">
-        <v>1.812730285268606</v>
+        <v>5.548323633063519</v>
       </c>
       <c r="E10">
-        <v>1.30349019773202</v>
+        <v>-0.0003311770117550819</v>
       </c>
       <c r="F10">
-        <v>1.194820992744549</v>
+        <v>0.002744787183627183</v>
       </c>
       <c r="G10">
-        <v>1.128973449048449</v>
+        <v>1.745442954137933</v>
       </c>
       <c r="H10">
-        <v>0.9618629511670956</v>
+        <v>0.001455124001017549</v>
       </c>
       <c r="I10">
-        <v>1.957963280333586</v>
+        <v>3.025005348636173</v>
       </c>
       <c r="J10">
-        <v>1.812730285268606</v>
+        <v>5.548323633063519</v>
       </c>
       <c r="K10">
-        <v>1.812730285268606</v>
+        <v>5.548323633063519</v>
       </c>
       <c r="L10">
-        <v>1.194820992744549</v>
+        <v>0.002744787183627183</v>
       </c>
       <c r="M10">
-        <v>1.249155595238284</v>
+        <v>0.001206805085936051</v>
       </c>
       <c r="N10">
-        <v>1.249155595238284</v>
+        <v>0.001206805085936051</v>
       </c>
       <c r="O10">
-        <v>1.153391380547888</v>
+        <v>0.001289578057629883</v>
       </c>
       <c r="P10">
-        <v>1.437013825248392</v>
+        <v>1.85024574774513</v>
       </c>
       <c r="Q10">
-        <v>1.437013825248392</v>
+        <v>1.850245747745131</v>
       </c>
       <c r="R10">
-        <v>1.530942940253445</v>
+        <v>2.774765219074728</v>
       </c>
       <c r="S10">
-        <v>1.530942940253445</v>
+        <v>2.774765219074728</v>
       </c>
       <c r="T10">
-        <v>1.393306859382384</v>
+        <v>1.720440111668419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.134116964887141</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="D11">
-        <v>2.411028622854662</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="E11">
-        <v>1.134116964887141</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="F11">
-        <v>1.414131261315171</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="G11">
-        <v>0.8485220186035012</v>
+        <v>1.195720652017876</v>
       </c>
       <c r="H11">
-        <v>0.6621942345859144</v>
+        <v>0.9359890364527746</v>
       </c>
       <c r="I11">
-        <v>1.947220384060003</v>
+        <v>1.076161093285317</v>
       </c>
       <c r="J11">
-        <v>2.411028622854662</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="K11">
-        <v>2.411028622854662</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="L11">
-        <v>1.414131261315171</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="M11">
-        <v>1.274124113101156</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="N11">
-        <v>1.274124113101156</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="O11">
-        <v>1.070147486929409</v>
+        <v>1.056242503659273</v>
       </c>
       <c r="P11">
-        <v>1.653092283018992</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="Q11">
-        <v>1.653092283018992</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="R11">
-        <v>1.842576367977909</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="S11">
-        <v>1.842576367977909</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="T11">
-        <v>1.402868914384399</v>
+        <v>1.157385579961466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.01007267612593674</v>
+        <v>1.026616088061462</v>
       </c>
       <c r="D12">
-        <v>1.64490734035368</v>
+        <v>1.301997957863128</v>
       </c>
       <c r="E12">
-        <v>0.01007267612593674</v>
+        <v>1.026616088061462</v>
       </c>
       <c r="F12">
-        <v>0.3478938515409021</v>
+        <v>1.118228654588224</v>
       </c>
       <c r="G12">
-        <v>1.244436136280289</v>
+        <v>1.075516454816964</v>
       </c>
       <c r="H12">
-        <v>1.137821563375036</v>
+        <v>0.9543444672244691</v>
       </c>
       <c r="I12">
-        <v>0.001600312871969344</v>
+        <v>1.085763838796223</v>
       </c>
       <c r="J12">
-        <v>1.64490734035368</v>
+        <v>1.301997957863128</v>
       </c>
       <c r="K12">
-        <v>1.64490734035368</v>
+        <v>1.301997957863128</v>
       </c>
       <c r="L12">
-        <v>0.3478938515409021</v>
+        <v>1.118228654588224</v>
       </c>
       <c r="M12">
-        <v>0.1789832638334194</v>
+        <v>1.072422371324843</v>
       </c>
       <c r="N12">
-        <v>0.1789832638334194</v>
+        <v>1.072422371324843</v>
       </c>
       <c r="O12">
-        <v>0.4985960303472918</v>
+        <v>1.033063069958052</v>
       </c>
       <c r="P12">
-        <v>0.6676246226735064</v>
+        <v>1.148947566837604</v>
       </c>
       <c r="Q12">
-        <v>0.6676246226735064</v>
+        <v>1.148947566837604</v>
       </c>
       <c r="R12">
-        <v>0.9119453020935498</v>
+        <v>1.187210164593985</v>
       </c>
       <c r="S12">
-        <v>0.9119453020935498</v>
+        <v>1.187210164593985</v>
       </c>
       <c r="T12">
-        <v>0.7311219800913024</v>
+        <v>1.093744576891745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.650080278019375</v>
+        <v>0.2341972185451241</v>
       </c>
       <c r="D13">
-        <v>1.928483279126137</v>
+        <v>3.283011766485514</v>
       </c>
       <c r="E13">
-        <v>1.650080278019375</v>
+        <v>0.2341972185451241</v>
       </c>
       <c r="F13">
-        <v>1.633503072583994</v>
+        <v>2.95723022860639</v>
       </c>
       <c r="G13">
-        <v>1.436313605266379</v>
+        <v>2.473365445353924</v>
       </c>
       <c r="H13">
-        <v>0.5303135410767813</v>
+        <v>0.976634697893725</v>
       </c>
       <c r="I13">
-        <v>0.05656664647616127</v>
+        <v>2.011441228028731</v>
       </c>
       <c r="J13">
-        <v>1.928483279126137</v>
+        <v>3.283011766485514</v>
       </c>
       <c r="K13">
-        <v>1.928483279126137</v>
+        <v>3.283011766485514</v>
       </c>
       <c r="L13">
-        <v>1.633503072583994</v>
+        <v>2.95723022860639</v>
       </c>
       <c r="M13">
-        <v>1.641791675301685</v>
+        <v>1.595713723575757</v>
       </c>
       <c r="N13">
-        <v>1.641791675301685</v>
+        <v>1.595713723575757</v>
       </c>
       <c r="O13">
-        <v>1.271298963893383</v>
+        <v>1.389354048348413</v>
       </c>
       <c r="P13">
-        <v>1.737355543243169</v>
+        <v>2.158146404545676</v>
       </c>
       <c r="Q13">
-        <v>1.737355543243169</v>
+        <v>2.158146404545676</v>
       </c>
       <c r="R13">
-        <v>1.785137477213911</v>
+        <v>2.439362745030635</v>
       </c>
       <c r="S13">
-        <v>1.785137477213911</v>
+        <v>2.439362745030635</v>
       </c>
       <c r="T13">
-        <v>1.205876737091471</v>
+        <v>1.989313430818901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2715115605015893</v>
+        <v>0.08469241731314121</v>
       </c>
       <c r="D14">
-        <v>-0.0005954403700143299</v>
+        <v>7.15066864774947</v>
       </c>
       <c r="E14">
-        <v>0.2715115605015893</v>
+        <v>0.08469241731314121</v>
       </c>
       <c r="F14">
-        <v>0.9358572889879052</v>
+        <v>4.467484837589093</v>
       </c>
       <c r="G14">
-        <v>0.1463567321083623</v>
+        <v>0.7716469339946421</v>
       </c>
       <c r="H14">
-        <v>1.878268911550419</v>
+        <v>0.8721269650408107</v>
       </c>
       <c r="I14">
-        <v>0.001578101097184428</v>
+        <v>1.956593847248477</v>
       </c>
       <c r="J14">
-        <v>-0.0005954403700143299</v>
+        <v>7.15066864774947</v>
       </c>
       <c r="K14">
-        <v>-0.0005954403700143299</v>
+        <v>7.15066864774947</v>
       </c>
       <c r="L14">
-        <v>0.9358572889879052</v>
+        <v>4.467484837589093</v>
       </c>
       <c r="M14">
-        <v>0.6036844247447473</v>
+        <v>2.276088627451117</v>
       </c>
       <c r="N14">
-        <v>0.6036844247447473</v>
+        <v>2.276088627451117</v>
       </c>
       <c r="O14">
-        <v>1.028545920346638</v>
+        <v>1.808101406647681</v>
       </c>
       <c r="P14">
-        <v>0.4022578030398267</v>
+        <v>3.900948634217234</v>
       </c>
       <c r="Q14">
-        <v>0.4022578030398267</v>
+        <v>3.900948634217234</v>
       </c>
       <c r="R14">
-        <v>0.3015444921873665</v>
+        <v>4.713378637600293</v>
       </c>
       <c r="S14">
-        <v>0.3015444921873665</v>
+        <v>4.713378637600293</v>
       </c>
       <c r="T14">
-        <v>0.5388295256459076</v>
+        <v>2.550535608155939</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1784394793583272</v>
+        <v>0.9990857577830798</v>
       </c>
       <c r="D15">
-        <v>0.02655081735166421</v>
+        <v>1.553982548330634</v>
       </c>
       <c r="E15">
-        <v>0.1784394793583272</v>
+        <v>0.9990857577830798</v>
       </c>
       <c r="F15">
-        <v>0.976678839267058</v>
+        <v>1.28450262092313</v>
       </c>
       <c r="G15">
-        <v>0.1391531486644672</v>
+        <v>1.163066644385307</v>
       </c>
       <c r="H15">
-        <v>1.42463830941264</v>
+        <v>0.9476214914675849</v>
       </c>
       <c r="I15">
-        <v>0.070398530168358</v>
+        <v>1.132429768820747</v>
       </c>
       <c r="J15">
-        <v>0.02655081735166421</v>
+        <v>1.553982548330634</v>
       </c>
       <c r="K15">
-        <v>0.02655081735166421</v>
+        <v>1.553982548330634</v>
       </c>
       <c r="L15">
-        <v>0.976678839267058</v>
+        <v>1.28450262092313</v>
       </c>
       <c r="M15">
-        <v>0.5775591593126925</v>
+        <v>1.141794189353105</v>
       </c>
       <c r="N15">
-        <v>0.5775591593126925</v>
+        <v>1.141794189353105</v>
       </c>
       <c r="O15">
-        <v>0.8599188760126749</v>
+        <v>1.077069956724598</v>
       </c>
       <c r="P15">
-        <v>0.3938897119923497</v>
+        <v>1.279190309012281</v>
       </c>
       <c r="Q15">
-        <v>0.3938897119923498</v>
+        <v>1.279190309012281</v>
       </c>
       <c r="R15">
-        <v>0.3020549883321784</v>
+        <v>1.347888368841869</v>
       </c>
       <c r="S15">
-        <v>0.3020549883321784</v>
+        <v>1.347888368841869</v>
       </c>
       <c r="T15">
-        <v>0.4693098540370859</v>
+        <v>1.18011480528508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2119602873540042</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="D16">
-        <v>8.778493172057738</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="E16">
-        <v>0.2119602873540042</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="F16">
-        <v>4.524552641034224</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="G16">
-        <v>4.369486760727419</v>
+        <v>1.6084623452637</v>
       </c>
       <c r="H16">
-        <v>0.1965075155754401</v>
+        <v>0.913995568451637</v>
       </c>
       <c r="I16">
-        <v>1.60795188070266</v>
+        <v>1.287277982565926</v>
       </c>
       <c r="J16">
-        <v>8.778493172057738</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="K16">
-        <v>8.778493172057738</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="L16">
-        <v>4.524552641034224</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="M16">
-        <v>2.368256464194114</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="N16">
-        <v>2.368256464194114</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="O16">
-        <v>1.644340147987889</v>
+        <v>1.269290959954445</v>
       </c>
       <c r="P16">
-        <v>4.505002033481989</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="Q16">
-        <v>4.505002033481989</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="R16">
-        <v>5.573374818125926</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="S16">
-        <v>5.573374818125926</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="T16">
-        <v>3.28149204290858</v>
+        <v>1.493587015120523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4159896533444055</v>
+        <v>4.329798708146087</v>
       </c>
       <c r="D17">
-        <v>6.214821734891478</v>
+        <v>5.788942726557585</v>
       </c>
       <c r="E17">
-        <v>0.4159896533444055</v>
+        <v>4.329798708146087</v>
       </c>
       <c r="F17">
-        <v>3.362672916152877</v>
+        <v>3.009826070164176</v>
       </c>
       <c r="G17">
-        <v>3.225970364027005</v>
+        <v>3.441607340907065</v>
       </c>
       <c r="H17">
-        <v>0.3910135312504726</v>
+        <v>0.5628536053931825</v>
       </c>
       <c r="I17">
-        <v>3.308385540088532</v>
+        <v>1.779593934075252</v>
       </c>
       <c r="J17">
-        <v>6.214821734891478</v>
+        <v>5.788942726557585</v>
       </c>
       <c r="K17">
-        <v>6.214821734891478</v>
+        <v>5.788942726557585</v>
       </c>
       <c r="L17">
-        <v>3.362672916152877</v>
+        <v>3.009826070164176</v>
       </c>
       <c r="M17">
-        <v>1.889331284748641</v>
+        <v>3.669812389155132</v>
       </c>
       <c r="N17">
-        <v>1.889331284748641</v>
+        <v>3.669812389155132</v>
       </c>
       <c r="O17">
-        <v>1.389892033582585</v>
+        <v>2.634159461234482</v>
       </c>
       <c r="P17">
-        <v>3.331161434796253</v>
+        <v>4.376189168289283</v>
       </c>
       <c r="Q17">
-        <v>3.331161434796254</v>
+        <v>4.376189168289282</v>
       </c>
       <c r="R17">
-        <v>4.05207650982006</v>
+        <v>4.729377557856358</v>
       </c>
       <c r="S17">
-        <v>4.05207650982006</v>
+        <v>4.729377557856358</v>
       </c>
       <c r="T17">
-        <v>2.819808956625795</v>
+        <v>3.152103730873891</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.25231797601389</v>
+        <v>0.0008781080227165643</v>
       </c>
       <c r="D18">
-        <v>1.57406870002671</v>
+        <v>12.26726157457938</v>
       </c>
       <c r="E18">
-        <v>1.25231797601389</v>
+        <v>0.0008781080227165643</v>
       </c>
       <c r="F18">
-        <v>1.393083210544965</v>
+        <v>5.955766116013245</v>
       </c>
       <c r="G18">
-        <v>0.949391198587576</v>
+        <v>2.624273153792337</v>
       </c>
       <c r="H18">
-        <v>0.7067139226533503</v>
+        <v>0.2868482652550125</v>
       </c>
       <c r="I18">
-        <v>6.843679553989984</v>
+        <v>2.979810298962784</v>
       </c>
       <c r="J18">
-        <v>1.57406870002671</v>
+        <v>12.26726157457938</v>
       </c>
       <c r="K18">
-        <v>1.57406870002671</v>
+        <v>12.26726157457938</v>
       </c>
       <c r="L18">
-        <v>1.393083210544965</v>
+        <v>5.955766116013245</v>
       </c>
       <c r="M18">
-        <v>1.322700593279428</v>
+        <v>2.978322112017981</v>
       </c>
       <c r="N18">
-        <v>1.322700593279428</v>
+        <v>2.978322112017981</v>
       </c>
       <c r="O18">
-        <v>1.117371703070735</v>
+        <v>2.081164163096991</v>
       </c>
       <c r="P18">
-        <v>1.406489962195188</v>
+        <v>6.074635266205115</v>
       </c>
       <c r="Q18">
-        <v>1.406489962195188</v>
+        <v>6.074635266205115</v>
       </c>
       <c r="R18">
-        <v>1.448384646653069</v>
+        <v>7.622791843298682</v>
       </c>
       <c r="S18">
-        <v>1.448384646653069</v>
+        <v>7.622791843298682</v>
       </c>
       <c r="T18">
-        <v>2.119875760302746</v>
+        <v>4.019139586104247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.747972793211336</v>
+        <v>1.053221701774032</v>
       </c>
       <c r="D19">
-        <v>1.403398730510375</v>
+        <v>1.098513076687625</v>
       </c>
       <c r="E19">
-        <v>2.747972793211336</v>
+        <v>1.053221701774032</v>
       </c>
       <c r="F19">
-        <v>0.8974432275838099</v>
+        <v>1.025235421169694</v>
       </c>
       <c r="G19">
-        <v>1.25676224979306</v>
+        <v>0.9756301300336446</v>
       </c>
       <c r="H19">
-        <v>0.5303148106391226</v>
+        <v>0.974719125096462</v>
       </c>
       <c r="I19">
-        <v>9.048314384715422</v>
+        <v>1.165543283459292</v>
       </c>
       <c r="J19">
-        <v>1.403398730510375</v>
+        <v>1.098513076687625</v>
       </c>
       <c r="K19">
-        <v>1.403398730510375</v>
+        <v>1.098513076687625</v>
       </c>
       <c r="L19">
-        <v>0.8974432275838099</v>
+        <v>1.025235421169694</v>
       </c>
       <c r="M19">
-        <v>1.822708010397573</v>
+        <v>1.039228561471863</v>
       </c>
       <c r="N19">
-        <v>1.822708010397573</v>
+        <v>1.039228561471863</v>
       </c>
       <c r="O19">
-        <v>1.391910277144756</v>
+        <v>1.017725416013396</v>
       </c>
       <c r="P19">
-        <v>1.682938250435174</v>
+        <v>1.058990066543784</v>
       </c>
       <c r="Q19">
-        <v>1.682938250435173</v>
+        <v>1.058990066543784</v>
       </c>
       <c r="R19">
-        <v>1.613053370453974</v>
+        <v>1.068870819079744</v>
       </c>
       <c r="S19">
-        <v>1.613053370453974</v>
+        <v>1.068870819079744</v>
       </c>
       <c r="T19">
-        <v>2.647367699408854</v>
+        <v>1.048810456370125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.07342904405002</v>
+        <v>1.056398668267005</v>
       </c>
       <c r="D20">
-        <v>1.011169514599894</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="E20">
-        <v>1.07342904405002</v>
+        <v>1.056398668267005</v>
       </c>
       <c r="F20">
-        <v>1.062329493015965</v>
+        <v>1.024083686405646</v>
       </c>
       <c r="G20">
-        <v>0.9739767656684389</v>
+        <v>0.9751753798791825</v>
       </c>
       <c r="H20">
-        <v>0.9748766505202768</v>
+        <v>0.9864970321458477</v>
       </c>
       <c r="I20">
-        <v>1.128859107152328</v>
+        <v>1.325224991984031</v>
       </c>
       <c r="J20">
-        <v>1.011169514599894</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="K20">
-        <v>1.011169514599894</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="L20">
-        <v>1.062329493015965</v>
+        <v>1.024083686405646</v>
       </c>
       <c r="M20">
-        <v>1.067879268532993</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="N20">
-        <v>1.067879268532993</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="O20">
-        <v>1.036878395862087</v>
+        <v>1.022326462272833</v>
       </c>
       <c r="P20">
-        <v>1.04897601722196</v>
+        <v>1.071733348204872</v>
       </c>
       <c r="Q20">
-        <v>1.04897601722196</v>
+        <v>1.071733348204872</v>
       </c>
       <c r="R20">
-        <v>1.039524391566443</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="S20">
-        <v>1.039524391566443</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="T20">
-        <v>1.037440095834487</v>
+        <v>1.083682908103946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.098000264598538</v>
+        <v>1.025867677007143</v>
       </c>
       <c r="D21">
-        <v>1.304066053228973</v>
+        <v>1.439563008279354</v>
       </c>
       <c r="E21">
-        <v>1.098000264598538</v>
+        <v>1.025867677007143</v>
       </c>
       <c r="F21">
-        <v>0.8762154115050692</v>
+        <v>1.090684020009934</v>
       </c>
       <c r="G21">
-        <v>1.035844316920174</v>
+        <v>0.9407347552525896</v>
       </c>
       <c r="H21">
-        <v>0.9808973613674223</v>
+        <v>0.9903438234650859</v>
       </c>
       <c r="I21">
-        <v>1.08195811841285</v>
+        <v>1.283112189978403</v>
       </c>
       <c r="J21">
-        <v>1.304066053228973</v>
+        <v>1.439563008279354</v>
       </c>
       <c r="K21">
-        <v>1.304066053228973</v>
+        <v>1.439563008279354</v>
       </c>
       <c r="L21">
-        <v>0.8762154115050692</v>
+        <v>1.090684020009934</v>
       </c>
       <c r="M21">
-        <v>0.9871078380518037</v>
+        <v>1.058275848508539</v>
       </c>
       <c r="N21">
-        <v>0.9871078380518037</v>
+        <v>1.058275848508539</v>
       </c>
       <c r="O21">
-        <v>0.9850376791570099</v>
+        <v>1.035631840160721</v>
       </c>
       <c r="P21">
-        <v>1.092760576444194</v>
+        <v>1.185371568432144</v>
       </c>
       <c r="Q21">
-        <v>1.092760576444194</v>
+        <v>1.185371568432144</v>
       </c>
       <c r="R21">
-        <v>1.145586945640388</v>
+        <v>1.248919428393946</v>
       </c>
       <c r="S21">
-        <v>1.145586945640388</v>
+        <v>1.248919428393946</v>
       </c>
       <c r="T21">
-        <v>1.062830254338838</v>
+        <v>1.128384245665419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.416547433521547</v>
+        <v>1.30349019773202</v>
       </c>
       <c r="D22">
-        <v>3.656087780184091</v>
+        <v>1.812730285268606</v>
       </c>
       <c r="E22">
-        <v>2.416547433521547</v>
+        <v>1.30349019773202</v>
       </c>
       <c r="F22">
-        <v>1.187525762121703</v>
+        <v>1.194820992744549</v>
       </c>
       <c r="G22">
-        <v>1.540380075412664</v>
+        <v>1.128973449048449</v>
       </c>
       <c r="H22">
-        <v>1.027869779345301</v>
+        <v>0.9618629511670956</v>
       </c>
       <c r="I22">
-        <v>1.264296465706769</v>
+        <v>1.957963280333586</v>
       </c>
       <c r="J22">
-        <v>3.656087780184091</v>
+        <v>1.812730285268606</v>
       </c>
       <c r="K22">
-        <v>3.656087780184091</v>
+        <v>1.812730285268606</v>
       </c>
       <c r="L22">
-        <v>1.187525762121703</v>
+        <v>1.194820992744549</v>
       </c>
       <c r="M22">
-        <v>1.802036597821625</v>
+        <v>1.249155595238284</v>
       </c>
       <c r="N22">
-        <v>1.802036597821625</v>
+        <v>1.249155595238284</v>
       </c>
       <c r="O22">
-        <v>1.54398099166285</v>
+        <v>1.153391380547888</v>
       </c>
       <c r="P22">
-        <v>2.420053658609113</v>
+        <v>1.437013825248392</v>
       </c>
       <c r="Q22">
-        <v>2.420053658609114</v>
+        <v>1.437013825248392</v>
       </c>
       <c r="R22">
-        <v>2.729062189002858</v>
+        <v>1.530942940253445</v>
       </c>
       <c r="S22">
-        <v>2.729062189002858</v>
+        <v>1.530942940253445</v>
       </c>
       <c r="T22">
-        <v>1.848784549382012</v>
+        <v>1.393306859382384</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.134116964887141</v>
+      </c>
+      <c r="D23">
+        <v>2.411028622854662</v>
+      </c>
+      <c r="E23">
+        <v>1.134116964887141</v>
+      </c>
+      <c r="F23">
+        <v>1.414131261315171</v>
+      </c>
+      <c r="G23">
+        <v>0.8485220186035012</v>
+      </c>
+      <c r="H23">
+        <v>0.6621942345859144</v>
+      </c>
+      <c r="I23">
+        <v>1.947220384060003</v>
+      </c>
+      <c r="J23">
+        <v>2.411028622854662</v>
+      </c>
+      <c r="K23">
+        <v>2.411028622854662</v>
+      </c>
+      <c r="L23">
+        <v>1.414131261315171</v>
+      </c>
+      <c r="M23">
+        <v>1.274124113101156</v>
+      </c>
+      <c r="N23">
+        <v>1.274124113101156</v>
+      </c>
+      <c r="O23">
+        <v>1.070147486929409</v>
+      </c>
+      <c r="P23">
+        <v>1.653092283018992</v>
+      </c>
+      <c r="Q23">
+        <v>1.653092283018992</v>
+      </c>
+      <c r="R23">
+        <v>1.842576367977909</v>
+      </c>
+      <c r="S23">
+        <v>1.842576367977909</v>
+      </c>
+      <c r="T23">
+        <v>1.402868914384399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.01007267612593674</v>
+      </c>
+      <c r="D24">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="E24">
+        <v>0.01007267612593674</v>
+      </c>
+      <c r="F24">
+        <v>0.3478938515409021</v>
+      </c>
+      <c r="G24">
+        <v>1.244436136280289</v>
+      </c>
+      <c r="H24">
+        <v>1.137821563375036</v>
+      </c>
+      <c r="I24">
+        <v>0.001600312871969344</v>
+      </c>
+      <c r="J24">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="K24">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="L24">
+        <v>0.3478938515409021</v>
+      </c>
+      <c r="M24">
+        <v>0.1789832638334194</v>
+      </c>
+      <c r="N24">
+        <v>0.1789832638334194</v>
+      </c>
+      <c r="O24">
+        <v>0.4985960303472918</v>
+      </c>
+      <c r="P24">
+        <v>0.6676246226735064</v>
+      </c>
+      <c r="Q24">
+        <v>0.6676246226735064</v>
+      </c>
+      <c r="R24">
+        <v>0.9119453020935498</v>
+      </c>
+      <c r="S24">
+        <v>0.9119453020935498</v>
+      </c>
+      <c r="T24">
+        <v>0.7311219800913024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.650080278019375</v>
+      </c>
+      <c r="D25">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="E25">
+        <v>1.650080278019375</v>
+      </c>
+      <c r="F25">
+        <v>1.633503072583994</v>
+      </c>
+      <c r="G25">
+        <v>1.436313605266379</v>
+      </c>
+      <c r="H25">
+        <v>0.5303135410767813</v>
+      </c>
+      <c r="I25">
+        <v>0.05656664647616127</v>
+      </c>
+      <c r="J25">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="K25">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="L25">
+        <v>1.633503072583994</v>
+      </c>
+      <c r="M25">
+        <v>1.641791675301685</v>
+      </c>
+      <c r="N25">
+        <v>1.641791675301685</v>
+      </c>
+      <c r="O25">
+        <v>1.271298963893383</v>
+      </c>
+      <c r="P25">
+        <v>1.737355543243169</v>
+      </c>
+      <c r="Q25">
+        <v>1.737355543243169</v>
+      </c>
+      <c r="R25">
+        <v>1.785137477213911</v>
+      </c>
+      <c r="S25">
+        <v>1.785137477213911</v>
+      </c>
+      <c r="T25">
+        <v>1.205876737091471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2715115605015893</v>
+      </c>
+      <c r="D26">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="E26">
+        <v>0.2715115605015893</v>
+      </c>
+      <c r="F26">
+        <v>0.9358572889879052</v>
+      </c>
+      <c r="G26">
+        <v>0.1463567321083623</v>
+      </c>
+      <c r="H26">
+        <v>1.878268911550419</v>
+      </c>
+      <c r="I26">
+        <v>0.001578101097184428</v>
+      </c>
+      <c r="J26">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="K26">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="L26">
+        <v>0.9358572889879052</v>
+      </c>
+      <c r="M26">
+        <v>0.6036844247447473</v>
+      </c>
+      <c r="N26">
+        <v>0.6036844247447473</v>
+      </c>
+      <c r="O26">
+        <v>1.028545920346638</v>
+      </c>
+      <c r="P26">
+        <v>0.4022578030398267</v>
+      </c>
+      <c r="Q26">
+        <v>0.4022578030398267</v>
+      </c>
+      <c r="R26">
+        <v>0.3015444921873665</v>
+      </c>
+      <c r="S26">
+        <v>0.3015444921873665</v>
+      </c>
+      <c r="T26">
+        <v>0.5388295256459076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.1784394793583272</v>
+      </c>
+      <c r="D27">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="E27">
+        <v>0.1784394793583272</v>
+      </c>
+      <c r="F27">
+        <v>0.976678839267058</v>
+      </c>
+      <c r="G27">
+        <v>0.1391531486644672</v>
+      </c>
+      <c r="H27">
+        <v>1.42463830941264</v>
+      </c>
+      <c r="I27">
+        <v>0.070398530168358</v>
+      </c>
+      <c r="J27">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="K27">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="L27">
+        <v>0.976678839267058</v>
+      </c>
+      <c r="M27">
+        <v>0.5775591593126925</v>
+      </c>
+      <c r="N27">
+        <v>0.5775591593126925</v>
+      </c>
+      <c r="O27">
+        <v>0.8599188760126749</v>
+      </c>
+      <c r="P27">
+        <v>0.3938897119923497</v>
+      </c>
+      <c r="Q27">
+        <v>0.3938897119923498</v>
+      </c>
+      <c r="R27">
+        <v>0.3020549883321784</v>
+      </c>
+      <c r="S27">
+        <v>0.3020549883321784</v>
+      </c>
+      <c r="T27">
+        <v>0.4693098540370859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2119602873540042</v>
+      </c>
+      <c r="D28">
+        <v>8.778493172057738</v>
+      </c>
+      <c r="E28">
+        <v>0.2119602873540042</v>
+      </c>
+      <c r="F28">
+        <v>4.524552641034224</v>
+      </c>
+      <c r="G28">
+        <v>4.369486760727419</v>
+      </c>
+      <c r="H28">
+        <v>0.1965075155754401</v>
+      </c>
+      <c r="I28">
+        <v>1.60795188070266</v>
+      </c>
+      <c r="J28">
+        <v>8.778493172057738</v>
+      </c>
+      <c r="K28">
+        <v>8.778493172057738</v>
+      </c>
+      <c r="L28">
+        <v>4.524552641034224</v>
+      </c>
+      <c r="M28">
+        <v>2.368256464194114</v>
+      </c>
+      <c r="N28">
+        <v>2.368256464194114</v>
+      </c>
+      <c r="O28">
+        <v>1.644340147987889</v>
+      </c>
+      <c r="P28">
+        <v>4.505002033481989</v>
+      </c>
+      <c r="Q28">
+        <v>4.505002033481989</v>
+      </c>
+      <c r="R28">
+        <v>5.573374818125926</v>
+      </c>
+      <c r="S28">
+        <v>5.573374818125926</v>
+      </c>
+      <c r="T28">
+        <v>3.28149204290858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4159896533444055</v>
+      </c>
+      <c r="D29">
+        <v>6.214821734891478</v>
+      </c>
+      <c r="E29">
+        <v>0.4159896533444055</v>
+      </c>
+      <c r="F29">
+        <v>3.362672916152877</v>
+      </c>
+      <c r="G29">
+        <v>3.225970364027005</v>
+      </c>
+      <c r="H29">
+        <v>0.3910135312504726</v>
+      </c>
+      <c r="I29">
+        <v>3.308385540088532</v>
+      </c>
+      <c r="J29">
+        <v>6.214821734891478</v>
+      </c>
+      <c r="K29">
+        <v>6.214821734891478</v>
+      </c>
+      <c r="L29">
+        <v>3.362672916152877</v>
+      </c>
+      <c r="M29">
+        <v>1.889331284748641</v>
+      </c>
+      <c r="N29">
+        <v>1.889331284748641</v>
+      </c>
+      <c r="O29">
+        <v>1.389892033582585</v>
+      </c>
+      <c r="P29">
+        <v>3.331161434796253</v>
+      </c>
+      <c r="Q29">
+        <v>3.331161434796254</v>
+      </c>
+      <c r="R29">
+        <v>4.05207650982006</v>
+      </c>
+      <c r="S29">
+        <v>4.05207650982006</v>
+      </c>
+      <c r="T29">
+        <v>2.819808956625795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.25231797601389</v>
+      </c>
+      <c r="D30">
+        <v>1.57406870002671</v>
+      </c>
+      <c r="E30">
+        <v>1.25231797601389</v>
+      </c>
+      <c r="F30">
+        <v>1.393083210544965</v>
+      </c>
+      <c r="G30">
+        <v>0.949391198587576</v>
+      </c>
+      <c r="H30">
+        <v>0.7067139226533503</v>
+      </c>
+      <c r="I30">
+        <v>6.843679553989984</v>
+      </c>
+      <c r="J30">
+        <v>1.57406870002671</v>
+      </c>
+      <c r="K30">
+        <v>1.57406870002671</v>
+      </c>
+      <c r="L30">
+        <v>1.393083210544965</v>
+      </c>
+      <c r="M30">
+        <v>1.322700593279428</v>
+      </c>
+      <c r="N30">
+        <v>1.322700593279428</v>
+      </c>
+      <c r="O30">
+        <v>1.117371703070735</v>
+      </c>
+      <c r="P30">
+        <v>1.406489962195188</v>
+      </c>
+      <c r="Q30">
+        <v>1.406489962195188</v>
+      </c>
+      <c r="R30">
+        <v>1.448384646653069</v>
+      </c>
+      <c r="S30">
+        <v>1.448384646653069</v>
+      </c>
+      <c r="T30">
+        <v>2.119875760302746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>2.747972793211336</v>
+      </c>
+      <c r="D31">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="E31">
+        <v>2.747972793211336</v>
+      </c>
+      <c r="F31">
+        <v>0.8974432275838099</v>
+      </c>
+      <c r="G31">
+        <v>1.25676224979306</v>
+      </c>
+      <c r="H31">
+        <v>0.5303148106391226</v>
+      </c>
+      <c r="I31">
+        <v>9.048314384715422</v>
+      </c>
+      <c r="J31">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="K31">
+        <v>1.403398730510375</v>
+      </c>
+      <c r="L31">
+        <v>0.8974432275838099</v>
+      </c>
+      <c r="M31">
+        <v>1.822708010397573</v>
+      </c>
+      <c r="N31">
+        <v>1.822708010397573</v>
+      </c>
+      <c r="O31">
+        <v>1.391910277144756</v>
+      </c>
+      <c r="P31">
+        <v>1.682938250435174</v>
+      </c>
+      <c r="Q31">
+        <v>1.682938250435173</v>
+      </c>
+      <c r="R31">
+        <v>1.613053370453974</v>
+      </c>
+      <c r="S31">
+        <v>1.613053370453974</v>
+      </c>
+      <c r="T31">
+        <v>2.647367699408854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.007367114473013696</v>
+      </c>
+      <c r="D32">
+        <v>12.86654070682191</v>
+      </c>
+      <c r="E32">
+        <v>0.007367114473013696</v>
+      </c>
+      <c r="F32">
+        <v>5.606671850460272</v>
+      </c>
+      <c r="G32">
+        <v>5.435811163525753</v>
+      </c>
+      <c r="H32">
+        <v>0.001481221851232877</v>
+      </c>
+      <c r="I32">
+        <v>0.009017744438356168</v>
+      </c>
+      <c r="J32">
+        <v>12.86654070682191</v>
+      </c>
+      <c r="K32">
+        <v>12.86654070682191</v>
+      </c>
+      <c r="L32">
+        <v>5.606671850460272</v>
+      </c>
+      <c r="M32">
+        <v>2.807019482466643</v>
+      </c>
+      <c r="N32">
+        <v>2.807019482466643</v>
+      </c>
+      <c r="O32">
+        <v>1.871840062261506</v>
+      </c>
+      <c r="P32">
+        <v>6.160193223918398</v>
+      </c>
+      <c r="Q32">
+        <v>6.160193223918399</v>
+      </c>
+      <c r="R32">
+        <v>7.836780094644277</v>
+      </c>
+      <c r="S32">
+        <v>7.836780094644277</v>
+      </c>
+      <c r="T32">
+        <v>3.987814966928423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>7.154208099054211</v>
+      </c>
+      <c r="D33">
+        <v>3.577001580099473</v>
+      </c>
+      <c r="E33">
+        <v>7.154208099054211</v>
+      </c>
+      <c r="F33">
+        <v>5.160669539423158</v>
+      </c>
+      <c r="G33">
+        <v>-0.006935671732105264</v>
+      </c>
+      <c r="H33">
+        <v>0.001693879303157895</v>
+      </c>
+      <c r="I33">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="J33">
+        <v>3.577001580099473</v>
+      </c>
+      <c r="K33">
+        <v>3.577001580099473</v>
+      </c>
+      <c r="L33">
+        <v>5.160669539423158</v>
+      </c>
+      <c r="M33">
+        <v>6.157438819238685</v>
+      </c>
+      <c r="N33">
+        <v>6.157438819238685</v>
+      </c>
+      <c r="O33">
+        <v>4.105523839260176</v>
+      </c>
+      <c r="P33">
+        <v>5.297293072858948</v>
+      </c>
+      <c r="Q33">
+        <v>5.297293072858948</v>
+      </c>
+      <c r="R33">
+        <v>4.867220199669079</v>
+      </c>
+      <c r="S33">
+        <v>4.867220199669079</v>
+      </c>
+      <c r="T33">
+        <v>5.228810808427107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.0003928710393684206</v>
+      </c>
+      <c r="D34">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="E34">
+        <v>0.0003928710393684206</v>
+      </c>
+      <c r="F34">
+        <v>0.001688891184210526</v>
+      </c>
+      <c r="G34">
+        <v>1.633350082278947</v>
+      </c>
+      <c r="H34">
+        <v>0.001051524914736841</v>
+      </c>
+      <c r="I34">
+        <v>10.16303285720106</v>
+      </c>
+      <c r="J34">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="K34">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="L34">
+        <v>0.001688891184210526</v>
+      </c>
+      <c r="M34">
+        <v>0.001040881111789473</v>
+      </c>
+      <c r="N34">
+        <v>0.001040881111789473</v>
+      </c>
+      <c r="O34">
+        <v>0.001044429046105263</v>
+      </c>
+      <c r="P34">
+        <v>2.260481946023649</v>
+      </c>
+      <c r="Q34">
+        <v>2.260481946023649</v>
+      </c>
+      <c r="R34">
+        <v>3.390202478479579</v>
+      </c>
+      <c r="S34">
+        <v>3.390202478479579</v>
+      </c>
+      <c r="T34">
+        <v>3.096480050410948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4406386914973422</v>
+      </c>
+      <c r="D35">
+        <v>0.4585934621811815</v>
+      </c>
+      <c r="E35">
+        <v>0.4406386914973422</v>
+      </c>
+      <c r="F35">
+        <v>0.5104867550372462</v>
+      </c>
+      <c r="G35">
+        <v>0.4615811818140616</v>
+      </c>
+      <c r="H35">
+        <v>0.3907875866132052</v>
+      </c>
+      <c r="I35">
+        <v>93.95711496821761</v>
+      </c>
+      <c r="J35">
+        <v>0.4585934621811815</v>
+      </c>
+      <c r="K35">
+        <v>0.4585934621811815</v>
+      </c>
+      <c r="L35">
+        <v>0.5104867550372462</v>
+      </c>
+      <c r="M35">
+        <v>0.4755627232672942</v>
+      </c>
+      <c r="N35">
+        <v>0.4755627232672942</v>
+      </c>
+      <c r="O35">
+        <v>0.4473043443825979</v>
+      </c>
+      <c r="P35">
+        <v>0.4699063029052566</v>
+      </c>
+      <c r="Q35">
+        <v>0.4699063029052566</v>
+      </c>
+      <c r="R35">
+        <v>0.4670780927242379</v>
+      </c>
+      <c r="S35">
+        <v>0.4670780927242379</v>
+      </c>
+      <c r="T35">
+        <v>16.03653377422678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.07342904405002</v>
+      </c>
+      <c r="D36">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="E36">
+        <v>1.07342904405002</v>
+      </c>
+      <c r="F36">
+        <v>1.062329493015965</v>
+      </c>
+      <c r="G36">
+        <v>0.9739767656684389</v>
+      </c>
+      <c r="H36">
+        <v>0.9748766505202768</v>
+      </c>
+      <c r="I36">
+        <v>1.128859107152328</v>
+      </c>
+      <c r="J36">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="K36">
+        <v>1.011169514599894</v>
+      </c>
+      <c r="L36">
+        <v>1.062329493015965</v>
+      </c>
+      <c r="M36">
+        <v>1.067879268532993</v>
+      </c>
+      <c r="N36">
+        <v>1.067879268532993</v>
+      </c>
+      <c r="O36">
+        <v>1.036878395862087</v>
+      </c>
+      <c r="P36">
+        <v>1.04897601722196</v>
+      </c>
+      <c r="Q36">
+        <v>1.04897601722196</v>
+      </c>
+      <c r="R36">
+        <v>1.039524391566443</v>
+      </c>
+      <c r="S36">
+        <v>1.039524391566443</v>
+      </c>
+      <c r="T36">
+        <v>1.037440095834487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.098000264598538</v>
+      </c>
+      <c r="D37">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="E37">
+        <v>1.098000264598538</v>
+      </c>
+      <c r="F37">
+        <v>0.8762154115050692</v>
+      </c>
+      <c r="G37">
+        <v>1.035844316920174</v>
+      </c>
+      <c r="H37">
+        <v>0.9808973613674223</v>
+      </c>
+      <c r="I37">
+        <v>1.08195811841285</v>
+      </c>
+      <c r="J37">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="K37">
+        <v>1.304066053228973</v>
+      </c>
+      <c r="L37">
+        <v>0.8762154115050692</v>
+      </c>
+      <c r="M37">
+        <v>0.9871078380518037</v>
+      </c>
+      <c r="N37">
+        <v>0.9871078380518037</v>
+      </c>
+      <c r="O37">
+        <v>0.9850376791570099</v>
+      </c>
+      <c r="P37">
+        <v>1.092760576444194</v>
+      </c>
+      <c r="Q37">
+        <v>1.092760576444194</v>
+      </c>
+      <c r="R37">
+        <v>1.145586945640388</v>
+      </c>
+      <c r="S37">
+        <v>1.145586945640388</v>
+      </c>
+      <c r="T37">
+        <v>1.062830254338838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>2.416547433521547</v>
+      </c>
+      <c r="D38">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="E38">
+        <v>2.416547433521547</v>
+      </c>
+      <c r="F38">
+        <v>1.187525762121703</v>
+      </c>
+      <c r="G38">
+        <v>1.540380075412664</v>
+      </c>
+      <c r="H38">
+        <v>1.027869779345301</v>
+      </c>
+      <c r="I38">
+        <v>1.264296465706769</v>
+      </c>
+      <c r="J38">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="K38">
+        <v>3.656087780184091</v>
+      </c>
+      <c r="L38">
+        <v>1.187525762121703</v>
+      </c>
+      <c r="M38">
+        <v>1.802036597821625</v>
+      </c>
+      <c r="N38">
+        <v>1.802036597821625</v>
+      </c>
+      <c r="O38">
+        <v>1.54398099166285</v>
+      </c>
+      <c r="P38">
+        <v>2.420053658609113</v>
+      </c>
+      <c r="Q38">
+        <v>2.420053658609114</v>
+      </c>
+      <c r="R38">
+        <v>2.729062189002858</v>
+      </c>
+      <c r="S38">
+        <v>2.729062189002858</v>
+      </c>
+      <c r="T38">
+        <v>1.848784549382012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>5.322524380166638</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.1926780518396127</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>5.322524380166638</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9414491003076831</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.976374789312769</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.4298813095927798</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>2.1899630932224</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.1926780518396127</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.1926780518396127</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9414491003076831</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>3.131986740237161</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>3.131986740237161</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>2.231284930022367</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>2.152217177437978</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>2.152217177437978</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.662332396038387</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.662332396038387</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.842145120740314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9796549634471413</v>
+      </c>
+      <c r="D40">
+        <v>0.9770199175480243</v>
+      </c>
+      <c r="E40">
+        <v>0.9796549634471413</v>
+      </c>
+      <c r="F40">
+        <v>1.585481409564097</v>
+      </c>
+      <c r="G40">
+        <v>1.029734983695747</v>
+      </c>
+      <c r="H40">
+        <v>0.8265671083235699</v>
+      </c>
+      <c r="I40">
+        <v>1.226457089999178</v>
+      </c>
+      <c r="J40">
+        <v>0.9770199175480243</v>
+      </c>
+      <c r="K40">
+        <v>0.9770199175480243</v>
+      </c>
+      <c r="L40">
+        <v>1.585481409564097</v>
+      </c>
+      <c r="M40">
+        <v>1.282568186505619</v>
+      </c>
+      <c r="N40">
+        <v>1.282568186505619</v>
+      </c>
+      <c r="O40">
+        <v>1.130567827111603</v>
+      </c>
+      <c r="P40">
+        <v>1.180718763519754</v>
+      </c>
+      <c r="Q40">
+        <v>1.180718763519754</v>
+      </c>
+      <c r="R40">
+        <v>1.129794052026822</v>
+      </c>
+      <c r="S40">
+        <v>1.129794052026822</v>
+      </c>
+      <c r="T40">
+        <v>1.10415257876296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.032362059141006</v>
+      </c>
+      <c r="D41">
+        <v>1.216041132522246</v>
+      </c>
+      <c r="E41">
+        <v>1.032362059141006</v>
+      </c>
+      <c r="F41">
+        <v>0.9053876762556193</v>
+      </c>
+      <c r="G41">
+        <v>0.9695417825278372</v>
+      </c>
+      <c r="H41">
+        <v>1.045545436705586</v>
+      </c>
+      <c r="I41">
+        <v>0.7916265146997241</v>
+      </c>
+      <c r="J41">
+        <v>1.216041132522246</v>
+      </c>
+      <c r="K41">
+        <v>1.216041132522246</v>
+      </c>
+      <c r="L41">
+        <v>0.9053876762556193</v>
+      </c>
+      <c r="M41">
+        <v>0.9688748676983128</v>
+      </c>
+      <c r="N41">
+        <v>0.9688748676983128</v>
+      </c>
+      <c r="O41">
+        <v>0.9944317240340705</v>
+      </c>
+      <c r="P41">
+        <v>1.051263622639624</v>
+      </c>
+      <c r="Q41">
+        <v>1.051263622639624</v>
+      </c>
+      <c r="R41">
+        <v>1.092458000110279</v>
+      </c>
+      <c r="S41">
+        <v>1.092458000110279</v>
+      </c>
+      <c r="T41">
+        <v>0.9934174336420032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.03589102699387026</v>
+      </c>
+      <c r="D42">
+        <v>1.646056747841685</v>
+      </c>
+      <c r="E42">
+        <v>0.03589102699387026</v>
+      </c>
+      <c r="F42">
+        <v>1.488503494448251</v>
+      </c>
+      <c r="G42">
+        <v>1.532845666840288</v>
+      </c>
+      <c r="H42">
+        <v>0.6054737293279804</v>
+      </c>
+      <c r="I42">
+        <v>1.089446318814703</v>
+      </c>
+      <c r="J42">
+        <v>1.646056747841685</v>
+      </c>
+      <c r="K42">
+        <v>1.646056747841685</v>
+      </c>
+      <c r="L42">
+        <v>1.488503494448251</v>
+      </c>
+      <c r="M42">
+        <v>0.7621972607210608</v>
+      </c>
+      <c r="N42">
+        <v>0.7621972607210608</v>
+      </c>
+      <c r="O42">
+        <v>0.7099560835900339</v>
+      </c>
+      <c r="P42">
+        <v>1.056817089761269</v>
+      </c>
+      <c r="Q42">
+        <v>1.056817089761269</v>
+      </c>
+      <c r="R42">
+        <v>1.204127004281373</v>
+      </c>
+      <c r="S42">
+        <v>1.204127004281373</v>
+      </c>
+      <c r="T42">
+        <v>1.066369497377796</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.553982548330634</v>
+        <v>1.056398668267005</v>
       </c>
       <c r="D3">
-        <v>0.9990857577830801</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="E3">
-        <v>1.28450262092313</v>
+        <v>1.056398668267005</v>
       </c>
       <c r="F3">
-        <v>1.553982548330634</v>
+        <v>1.024083686405646</v>
       </c>
       <c r="G3">
-        <v>1.132429768820747</v>
+        <v>0.9751753798791825</v>
       </c>
       <c r="H3">
-        <v>0.9476214914675849</v>
+        <v>0.9864970321458477</v>
       </c>
       <c r="I3">
-        <v>1.163066644385307</v>
+        <v>1.325224991984031</v>
       </c>
       <c r="J3">
-        <v>0.9990857577830801</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="K3">
-        <v>1.553982548330634</v>
+        <v>1.134717689941965</v>
       </c>
       <c r="L3">
-        <v>1.28450262092313</v>
+        <v>1.024083686405646</v>
       </c>
       <c r="M3">
-        <v>1.141794189353105</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="N3">
-        <v>1.141794189353105</v>
+        <v>1.040241177336325</v>
       </c>
       <c r="O3">
-        <v>1.077069956724598</v>
+        <v>1.022326462272833</v>
       </c>
       <c r="P3">
-        <v>1.279190309012281</v>
+        <v>1.071733348204872</v>
       </c>
       <c r="Q3">
-        <v>1.279190309012281</v>
+        <v>1.071733348204872</v>
       </c>
       <c r="R3">
-        <v>1.347888368841869</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="S3">
-        <v>1.347888368841869</v>
+        <v>1.087479433639145</v>
       </c>
       <c r="T3">
-        <v>1.18011480528508</v>
+        <v>1.083682908103946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.257908883030181</v>
+        <v>0.9796549634471413</v>
       </c>
       <c r="D4">
-        <v>1.426745609194579</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="E4">
-        <v>1.46713170221712</v>
+        <v>0.9796549634471413</v>
       </c>
       <c r="F4">
-        <v>2.257908883030181</v>
+        <v>1.585481409564097</v>
       </c>
       <c r="G4">
-        <v>1.287277982565926</v>
+        <v>1.029734983695747</v>
       </c>
       <c r="H4">
-        <v>0.913995568451637</v>
+        <v>0.8265671083235699</v>
       </c>
       <c r="I4">
-        <v>1.6084623452637</v>
+        <v>1.226457089999178</v>
       </c>
       <c r="J4">
-        <v>1.426745609194579</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="K4">
-        <v>2.257908883030181</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="L4">
-        <v>1.46713170221712</v>
+        <v>1.585481409564097</v>
       </c>
       <c r="M4">
-        <v>1.446938655705849</v>
+        <v>1.282568186505619</v>
       </c>
       <c r="N4">
-        <v>1.446938655705849</v>
+        <v>1.282568186505619</v>
       </c>
       <c r="O4">
-        <v>1.269290959954445</v>
+        <v>1.130567827111603</v>
       </c>
       <c r="P4">
-        <v>1.71726206481396</v>
+        <v>1.180718763519754</v>
       </c>
       <c r="Q4">
-        <v>1.71726206481396</v>
+        <v>1.180718763519754</v>
       </c>
       <c r="R4">
-        <v>1.852423769368015</v>
+        <v>1.129794052026822</v>
       </c>
       <c r="S4">
-        <v>1.852423769368015</v>
+        <v>1.129794052026822</v>
       </c>
       <c r="T4">
-        <v>1.493587015120523</v>
+        <v>1.10415257876296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.788942726557586</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="D5">
-        <v>4.329798708146087</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="E5">
-        <v>3.009826070164177</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="F5">
-        <v>5.788942726557586</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="G5">
-        <v>1.779593934075252</v>
+        <v>1.029988029642925</v>
       </c>
       <c r="H5">
-        <v>0.5628536053931825</v>
+        <v>0.7337175539677155</v>
       </c>
       <c r="I5">
-        <v>3.441607340907065</v>
+        <v>10.80002703437949</v>
       </c>
       <c r="J5">
-        <v>4.329798708146087</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="K5">
-        <v>5.788942726557586</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="L5">
-        <v>3.009826070164177</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="M5">
-        <v>3.669812389155132</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="N5">
-        <v>3.669812389155132</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="O5">
-        <v>2.634159461234482</v>
+        <v>0.8715618120419548</v>
       </c>
       <c r="P5">
-        <v>4.376189168289283</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="Q5">
-        <v>4.376189168289283</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="R5">
-        <v>4.729377557856359</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="S5">
-        <v>4.729377557856359</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="T5">
-        <v>3.152103730873892</v>
+        <v>2.618022937829585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.26726157457939</v>
+        <v>0.4406386914973422</v>
       </c>
       <c r="D6">
-        <v>0.0008781080227165643</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="E6">
-        <v>5.955766116013245</v>
+        <v>0.4406386914973422</v>
       </c>
       <c r="F6">
-        <v>12.26726157457939</v>
+        <v>0.5104867550372462</v>
       </c>
       <c r="G6">
-        <v>2.979810298962784</v>
+        <v>0.4615811818140616</v>
       </c>
       <c r="H6">
-        <v>0.2868482652550125</v>
+        <v>0.3907875866132052</v>
       </c>
       <c r="I6">
-        <v>2.624273153792336</v>
+        <v>93.95711496821761</v>
       </c>
       <c r="J6">
-        <v>0.0008781080227165643</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="K6">
-        <v>12.26726157457939</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="L6">
-        <v>5.955766116013245</v>
+        <v>0.5104867550372462</v>
       </c>
       <c r="M6">
-        <v>2.978322112017981</v>
+        <v>0.4755627232672942</v>
       </c>
       <c r="N6">
-        <v>2.978322112017981</v>
+        <v>0.4755627232672942</v>
       </c>
       <c r="O6">
-        <v>2.081164163096991</v>
+        <v>0.4473043443825979</v>
       </c>
       <c r="P6">
-        <v>6.074635266205116</v>
+        <v>0.4699063029052566</v>
       </c>
       <c r="Q6">
-        <v>6.074635266205116</v>
+        <v>0.4699063029052566</v>
       </c>
       <c r="R6">
-        <v>7.622791843298684</v>
+        <v>0.4670780927242379</v>
       </c>
       <c r="S6">
-        <v>7.622791843298684</v>
+        <v>0.4670780927242379</v>
       </c>
       <c r="T6">
-        <v>4.019139586104248</v>
+        <v>16.03653377422678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.098513076687626</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="D7">
-        <v>1.053221701774032</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="E7">
-        <v>1.025235421169693</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="F7">
-        <v>1.098513076687626</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="G7">
-        <v>1.165543283459292</v>
+        <v>1.195720652017876</v>
       </c>
       <c r="H7">
-        <v>0.9747191250964641</v>
+        <v>0.9359890364527746</v>
       </c>
       <c r="I7">
-        <v>0.975630130033644</v>
+        <v>1.076161093285317</v>
       </c>
       <c r="J7">
-        <v>1.053221701774032</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="K7">
-        <v>1.098513076687626</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="L7">
-        <v>1.025235421169693</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="M7">
-        <v>1.039228561471862</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="N7">
-        <v>1.039228561471862</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="O7">
-        <v>1.017725416013396</v>
+        <v>1.056242503659273</v>
       </c>
       <c r="P7">
-        <v>1.058990066543784</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="Q7">
-        <v>1.058990066543784</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="R7">
-        <v>1.068870819079744</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="S7">
-        <v>1.068870819079744</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="T7">
-        <v>1.048810456370125</v>
+        <v>1.157385579961466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.134717689941966</v>
+        <v>1.098000264598538</v>
       </c>
       <c r="D8">
-        <v>1.056398668267005</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="E8">
-        <v>1.024083686405646</v>
+        <v>1.098000264598538</v>
       </c>
       <c r="F8">
-        <v>1.134717689941966</v>
+        <v>0.8762154115050692</v>
       </c>
       <c r="G8">
-        <v>1.325224991984</v>
+        <v>1.035844316920174</v>
       </c>
       <c r="H8">
-        <v>0.9864970321458481</v>
+        <v>0.9808973613674223</v>
       </c>
       <c r="I8">
-        <v>0.9751753798791833</v>
+        <v>1.08195811841285</v>
       </c>
       <c r="J8">
-        <v>1.056398668267005</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="K8">
-        <v>1.134717689941966</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="L8">
-        <v>1.024083686405646</v>
+        <v>0.8762154115050692</v>
       </c>
       <c r="M8">
-        <v>1.040241177336326</v>
+        <v>0.9871078380518037</v>
       </c>
       <c r="N8">
-        <v>1.040241177336326</v>
+        <v>0.9871078380518037</v>
       </c>
       <c r="O8">
-        <v>1.022326462272833</v>
+        <v>0.9850376791570099</v>
       </c>
       <c r="P8">
-        <v>1.071733348204873</v>
+        <v>1.092760576444194</v>
       </c>
       <c r="Q8">
-        <v>1.071733348204872</v>
+        <v>1.092760576444194</v>
       </c>
       <c r="R8">
-        <v>1.087479433639146</v>
+        <v>1.145586945640388</v>
       </c>
       <c r="S8">
-        <v>1.087479433639146</v>
+        <v>1.145586945640388</v>
       </c>
       <c r="T8">
-        <v>1.083682908103941</v>
+        <v>1.062830254338838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.439563008279354</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="D9">
-        <v>1.025867677007143</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="E9">
-        <v>1.090684020009934</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="F9">
-        <v>1.439563008279354</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="G9">
-        <v>1.283112189978403</v>
+        <v>1.6084623452637</v>
       </c>
       <c r="H9">
-        <v>0.9903438234650859</v>
+        <v>0.913995568451637</v>
       </c>
       <c r="I9">
-        <v>0.9407347552525899</v>
+        <v>1.287277982565926</v>
       </c>
       <c r="J9">
-        <v>1.025867677007143</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="K9">
-        <v>1.439563008279354</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="L9">
-        <v>1.090684020009934</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="M9">
-        <v>1.058275848508539</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="N9">
-        <v>1.058275848508539</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="O9">
-        <v>1.035631840160721</v>
+        <v>1.269290959954445</v>
       </c>
       <c r="P9">
-        <v>1.185371568432144</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="Q9">
-        <v>1.185371568432144</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="R9">
-        <v>1.248919428393946</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="S9">
-        <v>1.248919428393946</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="T9">
-        <v>1.128384245665419</v>
+        <v>1.493587015120523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.812730285268606</v>
+        <v>0.6330826394010934</v>
       </c>
       <c r="D10">
-        <v>1.30349019773202</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="E10">
-        <v>1.194820992744549</v>
+        <v>0.6330826394010934</v>
       </c>
       <c r="F10">
-        <v>1.812730285268606</v>
+        <v>0.451810324091752</v>
       </c>
       <c r="G10">
-        <v>1.957963280333586</v>
+        <v>0.4465374033659094</v>
       </c>
       <c r="H10">
-        <v>0.9618629511670956</v>
+        <v>0.335300970004047</v>
       </c>
       <c r="I10">
-        <v>1.128973449048449</v>
+        <v>95.11846622607879</v>
       </c>
       <c r="J10">
-        <v>1.30349019773202</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="K10">
-        <v>1.812730285268606</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="L10">
-        <v>1.194820992744549</v>
+        <v>0.451810324091752</v>
       </c>
       <c r="M10">
-        <v>1.249155595238284</v>
+        <v>0.5424464817464227</v>
       </c>
       <c r="N10">
-        <v>1.249155595238284</v>
+        <v>0.5424464817464227</v>
       </c>
       <c r="O10">
-        <v>1.153391380547888</v>
+        <v>0.4733979778322975</v>
       </c>
       <c r="P10">
-        <v>1.437013825248392</v>
+        <v>0.5105757375944046</v>
       </c>
       <c r="Q10">
-        <v>1.437013825248392</v>
+        <v>0.5105757375944046</v>
       </c>
       <c r="R10">
-        <v>1.530942940253445</v>
+        <v>0.4946403655183955</v>
       </c>
       <c r="S10">
-        <v>1.530942940253445</v>
+        <v>0.4946403655183955</v>
       </c>
       <c r="T10">
-        <v>1.393306859382384</v>
+        <v>16.23867196870533</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.411028622854662</v>
+        <v>0.7232833461827374</v>
       </c>
       <c r="D11">
-        <v>1.13411696488714</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="E11">
-        <v>1.414131261315171</v>
+        <v>0.7232833461827374</v>
       </c>
       <c r="F11">
-        <v>2.411028622854662</v>
+        <v>1.548169098071844</v>
       </c>
       <c r="G11">
-        <v>1.947220384060003</v>
+        <v>1.188796869966178</v>
       </c>
       <c r="H11">
-        <v>0.6621942345859144</v>
+        <v>0.8864233558953907</v>
       </c>
       <c r="I11">
-        <v>0.8485220186035011</v>
+        <v>0.5800955033691984</v>
       </c>
       <c r="J11">
-        <v>1.13411696488714</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="K11">
-        <v>2.411028622854662</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="L11">
-        <v>1.414131261315171</v>
+        <v>1.548169098071844</v>
       </c>
       <c r="M11">
-        <v>1.274124113101156</v>
+        <v>1.135726222127291</v>
       </c>
       <c r="N11">
-        <v>1.274124113101156</v>
+        <v>1.135726222127291</v>
       </c>
       <c r="O11">
-        <v>1.070147486929409</v>
+        <v>1.052625266716657</v>
       </c>
       <c r="P11">
-        <v>1.653092283018991</v>
+        <v>1.133837875579868</v>
       </c>
       <c r="Q11">
-        <v>1.653092283018991</v>
+        <v>1.133837875579868</v>
       </c>
       <c r="R11">
-        <v>1.842576367977909</v>
+        <v>1.132893702306157</v>
       </c>
       <c r="S11">
-        <v>1.842576367977909</v>
+        <v>1.132893702306157</v>
       </c>
       <c r="T11">
-        <v>1.402868914384399</v>
+        <v>1.009471559328395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.64490734035368</v>
+        <v>1.132780206829671</v>
       </c>
       <c r="D12">
-        <v>0.0100726761259367</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="E12">
-        <v>0.3478938515409029</v>
+        <v>1.132780206829671</v>
       </c>
       <c r="F12">
-        <v>1.64490734035368</v>
+        <v>1.001080407108927</v>
       </c>
       <c r="G12">
-        <v>0.001600312871969341</v>
+        <v>0.8463833960597263</v>
       </c>
       <c r="H12">
-        <v>1.137821563375037</v>
+        <v>0.6086462461051253</v>
       </c>
       <c r="I12">
-        <v>1.24443613628029</v>
+        <v>15.03143949047142</v>
       </c>
       <c r="J12">
-        <v>0.0100726761259367</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="K12">
-        <v>1.64490734035368</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="L12">
-        <v>0.3478938515409029</v>
+        <v>1.001080407108927</v>
       </c>
       <c r="M12">
-        <v>0.1789832638334198</v>
+        <v>1.066930306969299</v>
       </c>
       <c r="N12">
-        <v>0.1789832638334198</v>
+        <v>1.066930306969299</v>
       </c>
       <c r="O12">
-        <v>0.4985960303472921</v>
+        <v>0.9141689533479075</v>
       </c>
       <c r="P12">
-        <v>0.6676246226735065</v>
+        <v>0.9765966572580456</v>
       </c>
       <c r="Q12">
-        <v>0.6676246226735064</v>
+        <v>0.9765966572580456</v>
       </c>
       <c r="R12">
-        <v>0.9119453020935497</v>
+        <v>0.9314298324024191</v>
       </c>
       <c r="S12">
-        <v>0.9119453020935497</v>
+        <v>0.9314298324024191</v>
       </c>
       <c r="T12">
-        <v>0.7311219800913026</v>
+        <v>3.236043184068401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.928483279126136</v>
+        <v>2.186136057949423</v>
       </c>
       <c r="D13">
-        <v>1.650080278019377</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="E13">
-        <v>1.633503072583993</v>
+        <v>2.186136057949423</v>
       </c>
       <c r="F13">
-        <v>1.928483279126136</v>
+        <v>0.8380914577152756</v>
       </c>
       <c r="G13">
-        <v>0.05656664647616127</v>
+        <v>0.9882602071112636</v>
       </c>
       <c r="H13">
-        <v>0.5303135410767834</v>
+        <v>0.9303867290198072</v>
       </c>
       <c r="I13">
-        <v>1.436313605266379</v>
+        <v>0.5653912462383196</v>
       </c>
       <c r="J13">
-        <v>1.650080278019377</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="K13">
-        <v>1.928483279126136</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="L13">
-        <v>1.633503072583993</v>
+        <v>0.8380914577152756</v>
       </c>
       <c r="M13">
-        <v>1.641791675301685</v>
+        <v>1.51211375783235</v>
       </c>
       <c r="N13">
-        <v>1.641791675301685</v>
+        <v>1.51211375783235</v>
       </c>
       <c r="O13">
-        <v>1.271298963893385</v>
+        <v>1.318204748228169</v>
       </c>
       <c r="P13">
-        <v>1.737355543243169</v>
+        <v>1.407454116666775</v>
       </c>
       <c r="Q13">
-        <v>1.737355543243169</v>
+        <v>1.407454116666775</v>
       </c>
       <c r="R13">
-        <v>1.785137477213911</v>
+        <v>1.355124296083988</v>
       </c>
       <c r="S13">
-        <v>1.785137477213911</v>
+        <v>1.355124296083988</v>
       </c>
       <c r="T13">
-        <v>1.205876737091472</v>
+        <v>1.11773342206162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0005954403700143319</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D14">
-        <v>0.2715115605015896</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="E14">
-        <v>0.9358572889879071</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F14">
-        <v>-0.0005954403700143319</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="G14">
-        <v>0.00157810109718443</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="H14">
-        <v>1.878268911550419</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="I14">
-        <v>0.1463567321083624</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="J14">
-        <v>0.2715115605015896</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="K14">
-        <v>-0.0005954403700143319</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L14">
-        <v>0.9358572889879071</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M14">
-        <v>0.6036844247447484</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N14">
-        <v>0.6036844247447484</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O14">
-        <v>1.028545920346639</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P14">
-        <v>0.4022578030398274</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q14">
-        <v>0.4022578030398274</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R14">
-        <v>0.301544492187367</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S14">
-        <v>0.301544492187367</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T14">
-        <v>0.538829525645908</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0265508173516642</v>
+        <v>0.0007090084499999999</v>
       </c>
       <c r="D15">
-        <v>0.1784394793583272</v>
+        <v>121.14151</v>
       </c>
       <c r="E15">
-        <v>0.9766788392670578</v>
+        <v>0.0007090084499999999</v>
       </c>
       <c r="F15">
-        <v>0.0265508173516642</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G15">
-        <v>0.070398530168358</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H15">
-        <v>1.42463830941264</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I15">
-        <v>0.1391531486644672</v>
+        <v>0.010282672</v>
       </c>
       <c r="J15">
-        <v>0.1784394793583272</v>
+        <v>121.14151</v>
       </c>
       <c r="K15">
-        <v>0.0265508173516642</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>0.9766788392670578</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.5775591593126925</v>
+        <v>-0.005765973775000001</v>
       </c>
       <c r="N15">
-        <v>0.5775591593126925</v>
+        <v>-0.005765973775000001</v>
       </c>
       <c r="O15">
-        <v>0.8599188760126752</v>
+        <v>-0.00443740755</v>
       </c>
       <c r="P15">
-        <v>0.3938897119923497</v>
+        <v>40.37665935081667</v>
       </c>
       <c r="Q15">
-        <v>0.3938897119923497</v>
+        <v>40.37665935081667</v>
       </c>
       <c r="R15">
-        <v>0.3020549883321783</v>
+        <v>60.5678720131125</v>
       </c>
       <c r="S15">
-        <v>0.3020549883321783</v>
+        <v>60.5678720131125</v>
       </c>
       <c r="T15">
-        <v>0.4693098540370859</v>
+        <v>20.188628549325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.011169514599891</v>
+        <v>-0.00098077107</v>
       </c>
       <c r="D16">
-        <v>1.07342904405002</v>
+        <v>-0.012241339</v>
       </c>
       <c r="E16">
-        <v>1.062329493015962</v>
+        <v>-0.00098077107</v>
       </c>
       <c r="F16">
-        <v>1.011169514599891</v>
+        <v>60.5637</v>
       </c>
       <c r="G16">
-        <v>1.128859107152328</v>
+        <v>-0.00029279457</v>
       </c>
       <c r="H16">
-        <v>0.9748766505202772</v>
+        <v>0.0051620706</v>
       </c>
       <c r="I16">
-        <v>0.9739767656684361</v>
+        <v>-0.016129659</v>
       </c>
       <c r="J16">
-        <v>1.07342904405002</v>
+        <v>-0.012241339</v>
       </c>
       <c r="K16">
-        <v>1.011169514599891</v>
+        <v>-0.012241339</v>
       </c>
       <c r="L16">
-        <v>1.062329493015962</v>
+        <v>60.5637</v>
       </c>
       <c r="M16">
-        <v>1.067879268532991</v>
+        <v>30.281359614465</v>
       </c>
       <c r="N16">
-        <v>1.067879268532991</v>
+        <v>30.281359614465</v>
       </c>
       <c r="O16">
-        <v>1.036878395862087</v>
+        <v>20.18929376651</v>
       </c>
       <c r="P16">
-        <v>1.048976017221958</v>
+        <v>20.18349262997667</v>
       </c>
       <c r="Q16">
-        <v>1.048976017221958</v>
+        <v>20.18349262997667</v>
       </c>
       <c r="R16">
-        <v>1.039524391566441</v>
+        <v>15.1345591377325</v>
       </c>
       <c r="S16">
-        <v>1.039524391566441</v>
+        <v>15.1345591377325</v>
       </c>
       <c r="T16">
-        <v>1.037440095834486</v>
+        <v>10.08986958449333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.304066053228971</v>
+        <v>5.6439568</v>
       </c>
       <c r="D17">
-        <v>1.09800026459854</v>
+        <v>-0.002943181</v>
       </c>
       <c r="E17">
-        <v>0.876215411505067</v>
+        <v>5.6439568</v>
       </c>
       <c r="F17">
-        <v>1.304066053228971</v>
+        <v>0.008133303200000001</v>
       </c>
       <c r="G17">
-        <v>1.081958118412851</v>
+        <v>0.0047377431</v>
       </c>
       <c r="H17">
-        <v>0.9808973613674228</v>
+        <v>-0.018902806</v>
       </c>
       <c r="I17">
-        <v>1.035844316920172</v>
+        <v>-0.0017118641</v>
       </c>
       <c r="J17">
-        <v>1.09800026459854</v>
+        <v>-0.002943181</v>
       </c>
       <c r="K17">
-        <v>1.304066053228971</v>
+        <v>-0.002943181</v>
       </c>
       <c r="L17">
-        <v>0.876215411505067</v>
+        <v>0.008133303200000001</v>
       </c>
       <c r="M17">
-        <v>0.9871078380518032</v>
+        <v>2.8260450516</v>
       </c>
       <c r="N17">
-        <v>0.9871078380518032</v>
+        <v>2.8260450516</v>
       </c>
       <c r="O17">
-        <v>0.9850376791570098</v>
+        <v>1.877729099066667</v>
       </c>
       <c r="P17">
-        <v>1.092760576444192</v>
+        <v>1.883048974066667</v>
       </c>
       <c r="Q17">
-        <v>1.092760576444193</v>
+        <v>1.883048974066667</v>
       </c>
       <c r="R17">
-        <v>1.145586945640387</v>
+        <v>1.4115509353</v>
       </c>
       <c r="S17">
-        <v>1.145586945640387</v>
+        <v>1.4115509353</v>
       </c>
       <c r="T17">
-        <v>1.062830254338837</v>
+        <v>0.9388783325333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.656087780184084</v>
+        <v>0.007367114473013696</v>
       </c>
       <c r="D18">
-        <v>2.416547433521542</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="E18">
-        <v>1.187525762121693</v>
+        <v>0.007367114473013696</v>
       </c>
       <c r="F18">
-        <v>3.656087780184084</v>
+        <v>5.606671850460272</v>
       </c>
       <c r="G18">
-        <v>1.264296465706779</v>
+        <v>5.435811163525753</v>
       </c>
       <c r="H18">
-        <v>1.0278697793453</v>
+        <v>0.001481221851232877</v>
       </c>
       <c r="I18">
-        <v>1.540380075412658</v>
+        <v>0.009017744438356168</v>
       </c>
       <c r="J18">
-        <v>2.416547433521542</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="K18">
-        <v>3.656087780184084</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="L18">
-        <v>1.187525762121693</v>
+        <v>5.606671850460272</v>
       </c>
       <c r="M18">
-        <v>1.802036597821618</v>
+        <v>2.807019482466643</v>
       </c>
       <c r="N18">
-        <v>1.802036597821618</v>
+        <v>2.807019482466643</v>
       </c>
       <c r="O18">
-        <v>1.543980991662845</v>
+        <v>1.871840062261506</v>
       </c>
       <c r="P18">
-        <v>2.420053658609107</v>
+        <v>6.160193223918398</v>
       </c>
       <c r="Q18">
-        <v>2.420053658609107</v>
+        <v>6.160193223918399</v>
       </c>
       <c r="R18">
-        <v>2.729062189002851</v>
+        <v>7.836780094644277</v>
       </c>
       <c r="S18">
-        <v>2.729062189002851</v>
+        <v>7.836780094644277</v>
       </c>
       <c r="T18">
-        <v>1.848784549382009</v>
+        <v>3.987814966928423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1926780518396127</v>
+        <v>7.154208099054211</v>
       </c>
       <c r="D19">
-        <v>5.322524380166638</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="E19">
-        <v>0.9414491003076833</v>
+        <v>7.154208099054211</v>
       </c>
       <c r="F19">
-        <v>0.1926780518396127</v>
+        <v>5.160669539423158</v>
       </c>
       <c r="G19">
-        <v>2.1899630932224</v>
+        <v>-0.006935671732105264</v>
       </c>
       <c r="H19">
-        <v>0.4298813095927798</v>
+        <v>0.001693879303157895</v>
       </c>
       <c r="I19">
-        <v>1.976374789312769</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="J19">
-        <v>5.322524380166638</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="K19">
-        <v>0.1926780518396127</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="L19">
-        <v>0.9414491003076833</v>
+        <v>5.160669539423158</v>
       </c>
       <c r="M19">
-        <v>3.131986740237161</v>
+        <v>6.157438819238685</v>
       </c>
       <c r="N19">
-        <v>3.131986740237161</v>
+        <v>6.157438819238685</v>
       </c>
       <c r="O19">
-        <v>2.231284930022367</v>
+        <v>4.105523839260176</v>
       </c>
       <c r="P19">
-        <v>2.152217177437978</v>
+        <v>5.297293072858948</v>
       </c>
       <c r="Q19">
-        <v>2.152217177437978</v>
+        <v>5.297293072858948</v>
       </c>
       <c r="R19">
-        <v>1.662332396038387</v>
+        <v>4.867220199669079</v>
       </c>
       <c r="S19">
-        <v>1.662332396038387</v>
+        <v>4.867220199669079</v>
       </c>
       <c r="T19">
-        <v>1.842145120740314</v>
+        <v>5.228810808427107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.0003928710393684206</v>
+      </c>
+      <c r="D20">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="E20">
+        <v>0.0003928710393684206</v>
+      </c>
+      <c r="F20">
+        <v>0.001688891184210526</v>
+      </c>
+      <c r="G20">
+        <v>1.633350082278947</v>
+      </c>
+      <c r="H20">
+        <v>0.001051524914736841</v>
+      </c>
+      <c r="I20">
+        <v>10.16303285720106</v>
+      </c>
+      <c r="J20">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="K20">
+        <v>6.779364075847369</v>
+      </c>
+      <c r="L20">
+        <v>0.001688891184210526</v>
+      </c>
+      <c r="M20">
+        <v>0.001040881111789473</v>
+      </c>
+      <c r="N20">
+        <v>0.001040881111789473</v>
+      </c>
+      <c r="O20">
+        <v>0.001044429046105263</v>
+      </c>
+      <c r="P20">
+        <v>2.260481946023649</v>
+      </c>
+      <c r="Q20">
+        <v>2.260481946023649</v>
+      </c>
+      <c r="R20">
+        <v>3.390202478479579</v>
+      </c>
+      <c r="S20">
+        <v>3.390202478479579</v>
+      </c>
+      <c r="T20">
+        <v>3.096480050410948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.2715115605015893</v>
+      </c>
+      <c r="D21">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="E21">
+        <v>0.2715115605015893</v>
+      </c>
+      <c r="F21">
+        <v>0.9358572889879052</v>
+      </c>
+      <c r="G21">
+        <v>0.1463567321083623</v>
+      </c>
+      <c r="H21">
+        <v>1.878268911550419</v>
+      </c>
+      <c r="I21">
+        <v>0.001578101097184428</v>
+      </c>
+      <c r="J21">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="K21">
+        <v>-0.0005954403700143299</v>
+      </c>
+      <c r="L21">
+        <v>0.9358572889879052</v>
+      </c>
+      <c r="M21">
+        <v>0.6036844247447473</v>
+      </c>
+      <c r="N21">
+        <v>0.6036844247447473</v>
+      </c>
+      <c r="O21">
+        <v>1.028545920346638</v>
+      </c>
+      <c r="P21">
+        <v>0.4022578030398267</v>
+      </c>
+      <c r="Q21">
+        <v>0.4022578030398267</v>
+      </c>
+      <c r="R21">
+        <v>0.3015444921873665</v>
+      </c>
+      <c r="S21">
+        <v>0.3015444921873665</v>
+      </c>
+      <c r="T21">
+        <v>0.5388295256459076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.1784394793583272</v>
+      </c>
+      <c r="D22">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="E22">
+        <v>0.1784394793583272</v>
+      </c>
+      <c r="F22">
+        <v>0.976678839267058</v>
+      </c>
+      <c r="G22">
+        <v>0.1391531486644672</v>
+      </c>
+      <c r="H22">
+        <v>1.42463830941264</v>
+      </c>
+      <c r="I22">
+        <v>0.070398530168358</v>
+      </c>
+      <c r="J22">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="K22">
+        <v>0.02655081735166421</v>
+      </c>
+      <c r="L22">
+        <v>0.976678839267058</v>
+      </c>
+      <c r="M22">
+        <v>0.5775591593126925</v>
+      </c>
+      <c r="N22">
+        <v>0.5775591593126925</v>
+      </c>
+      <c r="O22">
+        <v>0.8599188760126749</v>
+      </c>
+      <c r="P22">
+        <v>0.3938897119923497</v>
+      </c>
+      <c r="Q22">
+        <v>0.3938897119923498</v>
+      </c>
+      <c r="R22">
+        <v>0.3020549883321784</v>
+      </c>
+      <c r="S22">
+        <v>0.3020549883321784</v>
+      </c>
+      <c r="T22">
+        <v>0.4693098540370859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.01007267612593674</v>
+      </c>
+      <c r="D23">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="E23">
+        <v>0.01007267612593674</v>
+      </c>
+      <c r="F23">
+        <v>0.3478938515409021</v>
+      </c>
+      <c r="G23">
+        <v>1.244436136280289</v>
+      </c>
+      <c r="H23">
+        <v>1.137821563375036</v>
+      </c>
+      <c r="I23">
+        <v>0.001600312871969344</v>
+      </c>
+      <c r="J23">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="K23">
+        <v>1.64490734035368</v>
+      </c>
+      <c r="L23">
+        <v>0.3478938515409021</v>
+      </c>
+      <c r="M23">
+        <v>0.1789832638334194</v>
+      </c>
+      <c r="N23">
+        <v>0.1789832638334194</v>
+      </c>
+      <c r="O23">
+        <v>0.4985960303472918</v>
+      </c>
+      <c r="P23">
+        <v>0.6676246226735064</v>
+      </c>
+      <c r="Q23">
+        <v>0.6676246226735064</v>
+      </c>
+      <c r="R23">
+        <v>0.9119453020935498</v>
+      </c>
+      <c r="S23">
+        <v>0.9119453020935498</v>
+      </c>
+      <c r="T23">
+        <v>0.7311219800913024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.650080278019375</v>
+      </c>
+      <c r="D24">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="E24">
+        <v>1.650080278019375</v>
+      </c>
+      <c r="F24">
+        <v>1.633503072583994</v>
+      </c>
+      <c r="G24">
+        <v>1.436313605266379</v>
+      </c>
+      <c r="H24">
+        <v>0.5303135410767813</v>
+      </c>
+      <c r="I24">
+        <v>0.05656664647616127</v>
+      </c>
+      <c r="J24">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="K24">
+        <v>1.928483279126137</v>
+      </c>
+      <c r="L24">
+        <v>1.633503072583994</v>
+      </c>
+      <c r="M24">
+        <v>1.641791675301685</v>
+      </c>
+      <c r="N24">
+        <v>1.641791675301685</v>
+      </c>
+      <c r="O24">
+        <v>1.271298963893383</v>
+      </c>
+      <c r="P24">
+        <v>1.737355543243169</v>
+      </c>
+      <c r="Q24">
+        <v>1.737355543243169</v>
+      </c>
+      <c r="R24">
+        <v>1.785137477213911</v>
+      </c>
+      <c r="S24">
+        <v>1.785137477213911</v>
+      </c>
+      <c r="T24">
+        <v>1.205876737091471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.004881674851795735</v>
+      </c>
+      <c r="D25">
+        <v>0.9223044769220224</v>
+      </c>
+      <c r="E25">
+        <v>0.004881674851795735</v>
+      </c>
+      <c r="F25">
+        <v>0.01547329992016358</v>
+      </c>
+      <c r="G25">
+        <v>1.102641403758592</v>
+      </c>
+      <c r="H25">
+        <v>2.894408448559106</v>
+      </c>
+      <c r="I25">
+        <v>0.002969863902782885</v>
+      </c>
+      <c r="J25">
+        <v>0.9223044769220224</v>
+      </c>
+      <c r="K25">
+        <v>0.9223044769220224</v>
+      </c>
+      <c r="L25">
+        <v>0.01547329992016358</v>
+      </c>
+      <c r="M25">
+        <v>0.01017748738597966</v>
+      </c>
+      <c r="N25">
+        <v>0.01017748738597966</v>
+      </c>
+      <c r="O25">
+        <v>0.9715878077770218</v>
+      </c>
+      <c r="P25">
+        <v>0.3142198172313272</v>
+      </c>
+      <c r="Q25">
+        <v>0.3142198172313272</v>
+      </c>
+      <c r="R25">
+        <v>0.466240982154001</v>
+      </c>
+      <c r="S25">
+        <v>0.466240982154001</v>
+      </c>
+      <c r="T25">
+        <v>0.8237798613190771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.589459224956266</v>
+      </c>
+      <c r="D26">
+        <v>0.01097934175702442</v>
+      </c>
+      <c r="E26">
+        <v>3.589459224956266</v>
+      </c>
+      <c r="F26">
+        <v>1.423341406150485</v>
+      </c>
+      <c r="G26">
+        <v>0.4681267379781202</v>
+      </c>
+      <c r="H26">
+        <v>0.1778836063480327</v>
+      </c>
+      <c r="I26">
+        <v>0.06055689808787203</v>
+      </c>
+      <c r="J26">
+        <v>0.01097934175702442</v>
+      </c>
+      <c r="K26">
+        <v>0.01097934175702442</v>
+      </c>
+      <c r="L26">
+        <v>1.423341406150485</v>
+      </c>
+      <c r="M26">
+        <v>2.506400315553376</v>
+      </c>
+      <c r="N26">
+        <v>2.506400315553376</v>
+      </c>
+      <c r="O26">
+        <v>1.730228079151595</v>
+      </c>
+      <c r="P26">
+        <v>1.674593324287925</v>
+      </c>
+      <c r="Q26">
+        <v>1.674593324287925</v>
+      </c>
+      <c r="R26">
+        <v>1.2586898286552</v>
+      </c>
+      <c r="S26">
+        <v>1.2586898286552</v>
+      </c>
+      <c r="T26">
+        <v>0.9550578692129666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.004695097501472879</v>
+      </c>
+      <c r="D27">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="E27">
+        <v>-0.004695097501472879</v>
+      </c>
+      <c r="F27">
+        <v>0.002888269203067813</v>
+      </c>
+      <c r="G27">
+        <v>0.03555433805706877</v>
+      </c>
+      <c r="H27">
+        <v>4.961300656410549</v>
+      </c>
+      <c r="I27">
+        <v>20.82261733267055</v>
+      </c>
+      <c r="J27">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="K27">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="L27">
+        <v>0.002888269203067813</v>
+      </c>
+      <c r="M27">
+        <v>-0.0009034141492025333</v>
+      </c>
+      <c r="N27">
+        <v>-0.0009034141492025333</v>
+      </c>
+      <c r="O27">
+        <v>1.653164609370714</v>
+      </c>
+      <c r="P27">
+        <v>0.3637870634135854</v>
+      </c>
+      <c r="Q27">
+        <v>0.3637870634135854</v>
+      </c>
+      <c r="R27">
+        <v>0.5461323021949793</v>
+      </c>
+      <c r="S27">
+        <v>0.5461323021949793</v>
+      </c>
+      <c r="T27">
+        <v>4.485138919563154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>21.48570290890621</v>
+      </c>
+      <c r="D28">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="E28">
+        <v>21.48570290890621</v>
+      </c>
+      <c r="F28">
+        <v>0.006467247909546631</v>
+      </c>
+      <c r="G28">
+        <v>4.455883908717083</v>
+      </c>
+      <c r="H28">
+        <v>-0.00520480036438995</v>
+      </c>
+      <c r="I28">
+        <v>-0.000465881598878098</v>
+      </c>
+      <c r="J28">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="K28">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="L28">
+        <v>0.006467247909546631</v>
+      </c>
+      <c r="M28">
+        <v>10.74608507840788</v>
+      </c>
+      <c r="N28">
+        <v>10.74608507840788</v>
+      </c>
+      <c r="O28">
+        <v>7.16232178548379</v>
+      </c>
+      <c r="P28">
+        <v>7.166785519682133</v>
+      </c>
+      <c r="Q28">
+        <v>7.166785519682133</v>
+      </c>
+      <c r="R28">
+        <v>5.377135740319259</v>
+      </c>
+      <c r="S28">
+        <v>5.377135740319259</v>
+      </c>
+      <c r="T28">
+        <v>4.325094964300036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>48.33484156575361</v>
+      </c>
+      <c r="D29">
+        <v>0.008296502992262325</v>
+      </c>
+      <c r="E29">
+        <v>48.33484156575361</v>
+      </c>
+      <c r="F29">
+        <v>0.005348736384947822</v>
+      </c>
+      <c r="G29">
+        <v>0.007184930302253205</v>
+      </c>
+      <c r="H29">
+        <v>-0.008960343406062429</v>
+      </c>
+      <c r="I29">
+        <v>-0.008382810576539673</v>
+      </c>
+      <c r="J29">
+        <v>0.008296502992262325</v>
+      </c>
+      <c r="K29">
+        <v>0.008296502992262325</v>
+      </c>
+      <c r="L29">
+        <v>0.005348736384947822</v>
+      </c>
+      <c r="M29">
+        <v>24.17009515106928</v>
+      </c>
+      <c r="N29">
+        <v>24.17009515106928</v>
+      </c>
+      <c r="O29">
+        <v>16.11040998624417</v>
+      </c>
+      <c r="P29">
+        <v>16.11616226837694</v>
+      </c>
+      <c r="Q29">
+        <v>16.11616226837694</v>
+      </c>
+      <c r="R29">
+        <v>12.08919582703077</v>
+      </c>
+      <c r="S29">
+        <v>12.08919582703077</v>
+      </c>
+      <c r="T29">
+        <v>8.056388096908412</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9796549634471413</v>
+        <v>0.828322217733542</v>
       </c>
       <c r="D4">
-        <v>0.9770199175480243</v>
+        <v>0.8901906597909307</v>
       </c>
       <c r="E4">
-        <v>0.9796549634471413</v>
+        <v>0.828322217733542</v>
       </c>
       <c r="F4">
-        <v>1.585481409564097</v>
+        <v>1.05426628378709</v>
       </c>
       <c r="G4">
-        <v>1.029734983695747</v>
+        <v>0.9462265543184457</v>
       </c>
       <c r="H4">
-        <v>0.8265671083235699</v>
+        <v>0.7841173185028694</v>
       </c>
       <c r="I4">
-        <v>1.226457089999178</v>
+        <v>6.638392271133923</v>
       </c>
       <c r="J4">
-        <v>0.9770199175480243</v>
+        <v>0.8901906597909307</v>
       </c>
       <c r="K4">
-        <v>0.9770199175480243</v>
+        <v>0.8901906597909307</v>
       </c>
       <c r="L4">
-        <v>1.585481409564097</v>
+        <v>1.05426628378709</v>
       </c>
       <c r="M4">
-        <v>1.282568186505619</v>
+        <v>0.9412942507603161</v>
       </c>
       <c r="N4">
-        <v>1.282568186505619</v>
+        <v>0.9412942507603161</v>
       </c>
       <c r="O4">
-        <v>1.130567827111603</v>
+        <v>0.888901940007834</v>
       </c>
       <c r="P4">
-        <v>1.180718763519754</v>
+        <v>0.9242597204371877</v>
       </c>
       <c r="Q4">
-        <v>1.180718763519754</v>
+        <v>0.9242597204371877</v>
       </c>
       <c r="R4">
-        <v>1.129794052026822</v>
+        <v>0.9157424552756235</v>
       </c>
       <c r="S4">
-        <v>1.129794052026822</v>
+        <v>0.9157424552756235</v>
       </c>
       <c r="T4">
-        <v>1.10415257876296</v>
+        <v>1.856919217544467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7756360275707482</v>
+        <v>-0.000509324295209881</v>
       </c>
       <c r="D5">
-        <v>1.263437126829226</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="E5">
-        <v>0.7756360275707482</v>
+        <v>-0.000509324295209881</v>
       </c>
       <c r="F5">
-        <v>1.1053318545874</v>
+        <v>0.003117442238509692</v>
       </c>
       <c r="G5">
-        <v>1.029988029642925</v>
+        <v>1.799473772344342</v>
       </c>
       <c r="H5">
-        <v>0.7337175539677155</v>
+        <v>0.001563311327373341</v>
       </c>
       <c r="I5">
-        <v>10.80002703437949</v>
+        <v>1.039923788402676</v>
       </c>
       <c r="J5">
-        <v>1.263437126829226</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="K5">
-        <v>1.263437126829226</v>
+        <v>4.493613745199684</v>
       </c>
       <c r="L5">
-        <v>1.1053318545874</v>
+        <v>0.003117442238509692</v>
       </c>
       <c r="M5">
-        <v>0.9404839410790744</v>
+        <v>0.001304058971649906</v>
       </c>
       <c r="N5">
-        <v>0.9404839410790744</v>
+        <v>0.001304058971649906</v>
       </c>
       <c r="O5">
-        <v>0.8715618120419548</v>
+        <v>0.001390476423557718</v>
       </c>
       <c r="P5">
-        <v>1.048135002995791</v>
+        <v>1.498740621047661</v>
       </c>
       <c r="Q5">
-        <v>1.048135002995791</v>
+        <v>1.498740621047661</v>
       </c>
       <c r="R5">
-        <v>1.10196053395415</v>
+        <v>2.247458902085667</v>
       </c>
       <c r="S5">
-        <v>1.10196053395415</v>
+        <v>2.247458902085667</v>
       </c>
       <c r="T5">
-        <v>2.618022937829585</v>
+        <v>1.222863789202896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4406386914973422</v>
+        <v>0.9796549634471413</v>
       </c>
       <c r="D6">
-        <v>0.4585934621811815</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="E6">
-        <v>0.4406386914973422</v>
+        <v>0.9796549634471413</v>
       </c>
       <c r="F6">
-        <v>0.5104867550372462</v>
+        <v>1.585481409564097</v>
       </c>
       <c r="G6">
-        <v>0.4615811818140616</v>
+        <v>1.029734983695747</v>
       </c>
       <c r="H6">
-        <v>0.3907875866132052</v>
+        <v>0.8265671083235699</v>
       </c>
       <c r="I6">
-        <v>93.95711496821761</v>
+        <v>1.226457089999178</v>
       </c>
       <c r="J6">
-        <v>0.4585934621811815</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="K6">
-        <v>0.4585934621811815</v>
+        <v>0.9770199175480243</v>
       </c>
       <c r="L6">
-        <v>0.5104867550372462</v>
+        <v>1.585481409564097</v>
       </c>
       <c r="M6">
-        <v>0.4755627232672942</v>
+        <v>1.282568186505619</v>
       </c>
       <c r="N6">
-        <v>0.4755627232672942</v>
+        <v>1.282568186505619</v>
       </c>
       <c r="O6">
-        <v>0.4473043443825979</v>
+        <v>1.130567827111603</v>
       </c>
       <c r="P6">
-        <v>0.4699063029052566</v>
+        <v>1.180718763519754</v>
       </c>
       <c r="Q6">
-        <v>0.4699063029052566</v>
+        <v>1.180718763519754</v>
       </c>
       <c r="R6">
-        <v>0.4670780927242379</v>
+        <v>1.129794052026822</v>
       </c>
       <c r="S6">
-        <v>0.4670780927242379</v>
+        <v>1.129794052026822</v>
       </c>
       <c r="T6">
-        <v>16.03653377422678</v>
+        <v>1.10415257876296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.014854371838226</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="D7">
-        <v>1.503704223487785</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="E7">
-        <v>1.014854371838226</v>
+        <v>0.7756360275707482</v>
       </c>
       <c r="F7">
-        <v>1.21788410268682</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="G7">
-        <v>1.195720652017876</v>
+        <v>1.029988029642925</v>
       </c>
       <c r="H7">
-        <v>0.9359890364527746</v>
+        <v>0.7337175539677155</v>
       </c>
       <c r="I7">
-        <v>1.076161093285317</v>
+        <v>10.80002703437949</v>
       </c>
       <c r="J7">
-        <v>1.503704223487785</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="K7">
-        <v>1.503704223487785</v>
+        <v>1.263437126829226</v>
       </c>
       <c r="L7">
-        <v>1.21788410268682</v>
+        <v>1.1053318545874</v>
       </c>
       <c r="M7">
-        <v>1.116369237262523</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="N7">
-        <v>1.116369237262523</v>
+        <v>0.9404839410790744</v>
       </c>
       <c r="O7">
-        <v>1.056242503659273</v>
+        <v>0.8715618120419548</v>
       </c>
       <c r="P7">
-        <v>1.24548089933761</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="Q7">
-        <v>1.24548089933761</v>
+        <v>1.048135002995791</v>
       </c>
       <c r="R7">
-        <v>1.310036730375154</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="S7">
-        <v>1.310036730375154</v>
+        <v>1.10196053395415</v>
       </c>
       <c r="T7">
-        <v>1.157385579961466</v>
+        <v>2.618022937829585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.098000264598538</v>
+        <v>0.4406386914973422</v>
       </c>
       <c r="D8">
-        <v>1.304066053228973</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="E8">
-        <v>1.098000264598538</v>
+        <v>0.4406386914973422</v>
       </c>
       <c r="F8">
-        <v>0.8762154115050692</v>
+        <v>0.5104867550372462</v>
       </c>
       <c r="G8">
-        <v>1.035844316920174</v>
+        <v>0.4615811818140616</v>
       </c>
       <c r="H8">
-        <v>0.9808973613674223</v>
+        <v>0.3907875866132052</v>
       </c>
       <c r="I8">
-        <v>1.08195811841285</v>
+        <v>93.95711496821761</v>
       </c>
       <c r="J8">
-        <v>1.304066053228973</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="K8">
-        <v>1.304066053228973</v>
+        <v>0.4585934621811815</v>
       </c>
       <c r="L8">
-        <v>0.8762154115050692</v>
+        <v>0.5104867550372462</v>
       </c>
       <c r="M8">
-        <v>0.9871078380518037</v>
+        <v>0.4755627232672942</v>
       </c>
       <c r="N8">
-        <v>0.9871078380518037</v>
+        <v>0.4755627232672942</v>
       </c>
       <c r="O8">
-        <v>0.9850376791570099</v>
+        <v>0.4473043443825979</v>
       </c>
       <c r="P8">
-        <v>1.092760576444194</v>
+        <v>0.4699063029052566</v>
       </c>
       <c r="Q8">
-        <v>1.092760576444194</v>
+        <v>0.4699063029052566</v>
       </c>
       <c r="R8">
-        <v>1.145586945640388</v>
+        <v>0.4670780927242379</v>
       </c>
       <c r="S8">
-        <v>1.145586945640388</v>
+        <v>0.4670780927242379</v>
       </c>
       <c r="T8">
-        <v>1.062830254338838</v>
+        <v>16.03653377422678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.426745609194579</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="D9">
-        <v>2.257908883030181</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="E9">
-        <v>1.426745609194579</v>
+        <v>1.014854371838226</v>
       </c>
       <c r="F9">
-        <v>1.46713170221712</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="G9">
-        <v>1.6084623452637</v>
+        <v>1.195720652017876</v>
       </c>
       <c r="H9">
-        <v>0.913995568451637</v>
+        <v>0.9359890364527746</v>
       </c>
       <c r="I9">
-        <v>1.287277982565926</v>
+        <v>1.076161093285317</v>
       </c>
       <c r="J9">
-        <v>2.257908883030181</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="K9">
-        <v>2.257908883030181</v>
+        <v>1.503704223487785</v>
       </c>
       <c r="L9">
-        <v>1.46713170221712</v>
+        <v>1.21788410268682</v>
       </c>
       <c r="M9">
-        <v>1.446938655705849</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="N9">
-        <v>1.446938655705849</v>
+        <v>1.116369237262523</v>
       </c>
       <c r="O9">
-        <v>1.269290959954445</v>
+        <v>1.056242503659273</v>
       </c>
       <c r="P9">
-        <v>1.71726206481396</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="Q9">
-        <v>1.71726206481396</v>
+        <v>1.24548089933761</v>
       </c>
       <c r="R9">
-        <v>1.852423769368015</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="S9">
-        <v>1.852423769368015</v>
+        <v>1.310036730375154</v>
       </c>
       <c r="T9">
-        <v>1.493587015120523</v>
+        <v>1.157385579961466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6330826394010934</v>
+        <v>1.098000264598538</v>
       </c>
       <c r="D10">
-        <v>0.4468342492903681</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="E10">
-        <v>0.6330826394010934</v>
+        <v>1.098000264598538</v>
       </c>
       <c r="F10">
-        <v>0.451810324091752</v>
+        <v>0.8762154115050692</v>
       </c>
       <c r="G10">
-        <v>0.4465374033659094</v>
+        <v>1.035844316920174</v>
       </c>
       <c r="H10">
-        <v>0.335300970004047</v>
+        <v>0.9808973613674223</v>
       </c>
       <c r="I10">
-        <v>95.11846622607879</v>
+        <v>1.08195811841285</v>
       </c>
       <c r="J10">
-        <v>0.4468342492903681</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="K10">
-        <v>0.4468342492903681</v>
+        <v>1.304066053228973</v>
       </c>
       <c r="L10">
-        <v>0.451810324091752</v>
+        <v>0.8762154115050692</v>
       </c>
       <c r="M10">
-        <v>0.5424464817464227</v>
+        <v>0.9871078380518037</v>
       </c>
       <c r="N10">
-        <v>0.5424464817464227</v>
+        <v>0.9871078380518037</v>
       </c>
       <c r="O10">
-        <v>0.4733979778322975</v>
+        <v>0.9850376791570099</v>
       </c>
       <c r="P10">
-        <v>0.5105757375944046</v>
+        <v>1.092760576444194</v>
       </c>
       <c r="Q10">
-        <v>0.5105757375944046</v>
+        <v>1.092760576444194</v>
       </c>
       <c r="R10">
-        <v>0.4946403655183955</v>
+        <v>1.145586945640388</v>
       </c>
       <c r="S10">
-        <v>0.4946403655183955</v>
+        <v>1.145586945640388</v>
       </c>
       <c r="T10">
-        <v>16.23867196870533</v>
+        <v>1.062830254338838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7232833461827374</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="D11">
-        <v>1.130061182485023</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="E11">
-        <v>0.7232833461827374</v>
+        <v>1.426745609194579</v>
       </c>
       <c r="F11">
-        <v>1.548169098071844</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="G11">
-        <v>1.188796869966178</v>
+        <v>1.6084623452637</v>
       </c>
       <c r="H11">
-        <v>0.8864233558953907</v>
+        <v>0.913995568451637</v>
       </c>
       <c r="I11">
-        <v>0.5800955033691984</v>
+        <v>1.287277982565926</v>
       </c>
       <c r="J11">
-        <v>1.130061182485023</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="K11">
-        <v>1.130061182485023</v>
+        <v>2.257908883030181</v>
       </c>
       <c r="L11">
-        <v>1.548169098071844</v>
+        <v>1.46713170221712</v>
       </c>
       <c r="M11">
-        <v>1.135726222127291</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="N11">
-        <v>1.135726222127291</v>
+        <v>1.446938655705849</v>
       </c>
       <c r="O11">
-        <v>1.052625266716657</v>
+        <v>1.269290959954445</v>
       </c>
       <c r="P11">
-        <v>1.133837875579868</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="Q11">
-        <v>1.133837875579868</v>
+        <v>1.71726206481396</v>
       </c>
       <c r="R11">
-        <v>1.132893702306157</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="S11">
-        <v>1.132893702306157</v>
+        <v>1.852423769368015</v>
       </c>
       <c r="T11">
-        <v>1.009471559328395</v>
+        <v>1.493587015120523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.132780206829671</v>
+        <v>0.6330826394010934</v>
       </c>
       <c r="D12">
-        <v>0.7959293578355394</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="E12">
-        <v>1.132780206829671</v>
+        <v>0.6330826394010934</v>
       </c>
       <c r="F12">
-        <v>1.001080407108927</v>
+        <v>0.451810324091752</v>
       </c>
       <c r="G12">
-        <v>0.8463833960597263</v>
+        <v>0.4465374033659094</v>
       </c>
       <c r="H12">
-        <v>0.6086462461051253</v>
+        <v>0.335300970004047</v>
       </c>
       <c r="I12">
-        <v>15.03143949047142</v>
+        <v>95.11846622607879</v>
       </c>
       <c r="J12">
-        <v>0.7959293578355394</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="K12">
-        <v>0.7959293578355394</v>
+        <v>0.4468342492903681</v>
       </c>
       <c r="L12">
-        <v>1.001080407108927</v>
+        <v>0.451810324091752</v>
       </c>
       <c r="M12">
-        <v>1.066930306969299</v>
+        <v>0.5424464817464227</v>
       </c>
       <c r="N12">
-        <v>1.066930306969299</v>
+        <v>0.5424464817464227</v>
       </c>
       <c r="O12">
-        <v>0.9141689533479075</v>
+        <v>0.4733979778322975</v>
       </c>
       <c r="P12">
-        <v>0.9765966572580456</v>
+        <v>0.5105757375944046</v>
       </c>
       <c r="Q12">
-        <v>0.9765966572580456</v>
+        <v>0.5105757375944046</v>
       </c>
       <c r="R12">
-        <v>0.9314298324024191</v>
+        <v>0.4946403655183955</v>
       </c>
       <c r="S12">
-        <v>0.9314298324024191</v>
+        <v>0.4946403655183955</v>
       </c>
       <c r="T12">
-        <v>3.236043184068401</v>
+        <v>16.23867196870533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.186136057949423</v>
+        <v>0.7232833461827374</v>
       </c>
       <c r="D13">
-        <v>1.198134834335627</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="E13">
-        <v>2.186136057949423</v>
+        <v>0.7232833461827374</v>
       </c>
       <c r="F13">
-        <v>0.8380914577152756</v>
+        <v>1.548169098071844</v>
       </c>
       <c r="G13">
-        <v>0.9882602071112636</v>
+        <v>1.188796869966178</v>
       </c>
       <c r="H13">
-        <v>0.9303867290198072</v>
+        <v>0.8864233558953907</v>
       </c>
       <c r="I13">
-        <v>0.5653912462383196</v>
+        <v>0.5800955033691984</v>
       </c>
       <c r="J13">
-        <v>1.198134834335627</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="K13">
-        <v>1.198134834335627</v>
+        <v>1.130061182485023</v>
       </c>
       <c r="L13">
-        <v>0.8380914577152756</v>
+        <v>1.548169098071844</v>
       </c>
       <c r="M13">
-        <v>1.51211375783235</v>
+        <v>1.135726222127291</v>
       </c>
       <c r="N13">
-        <v>1.51211375783235</v>
+        <v>1.135726222127291</v>
       </c>
       <c r="O13">
-        <v>1.318204748228169</v>
+        <v>1.052625266716657</v>
       </c>
       <c r="P13">
-        <v>1.407454116666775</v>
+        <v>1.133837875579868</v>
       </c>
       <c r="Q13">
-        <v>1.407454116666775</v>
+        <v>1.133837875579868</v>
       </c>
       <c r="R13">
-        <v>1.355124296083988</v>
+        <v>1.132893702306157</v>
       </c>
       <c r="S13">
-        <v>1.355124296083988</v>
+        <v>1.132893702306157</v>
       </c>
       <c r="T13">
-        <v>1.11773342206162</v>
+        <v>1.009471559328395</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01191020399999999</v>
+        <v>1.132780206829671</v>
       </c>
       <c r="D14">
-        <v>0.01028267100000001</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="E14">
-        <v>0.01191020399999999</v>
+        <v>1.132780206829671</v>
       </c>
       <c r="F14">
-        <v>-0.01613836100000001</v>
+        <v>1.001080407108927</v>
       </c>
       <c r="G14">
-        <v>-0.002821837500000001</v>
+        <v>0.8463833960597263</v>
       </c>
       <c r="H14">
-        <v>-0.004875324700000001</v>
+        <v>0.6086462461051253</v>
       </c>
       <c r="I14">
-        <v>181.7141200000001</v>
+        <v>15.03143949047142</v>
       </c>
       <c r="J14">
-        <v>0.01028267100000001</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="K14">
-        <v>0.01028267100000001</v>
+        <v>0.7959293578355394</v>
       </c>
       <c r="L14">
-        <v>-0.01613836100000001</v>
+        <v>1.001080407108927</v>
       </c>
       <c r="M14">
-        <v>-0.00211407850000001</v>
+        <v>1.066930306969299</v>
       </c>
       <c r="N14">
-        <v>-0.00211407850000001</v>
+        <v>1.066930306969299</v>
       </c>
       <c r="O14">
-        <v>-0.003034493900000007</v>
+        <v>0.9141689533479075</v>
       </c>
       <c r="P14">
-        <v>0.002018171333333331</v>
+        <v>0.9765966572580456</v>
       </c>
       <c r="Q14">
-        <v>0.002018171333333331</v>
+        <v>0.9765966572580456</v>
       </c>
       <c r="R14">
-        <v>0.004084296250000001</v>
+        <v>0.9314298324024191</v>
       </c>
       <c r="S14">
-        <v>0.004084296250000001</v>
+        <v>0.9314298324024191</v>
       </c>
       <c r="T14">
-        <v>30.28541289196669</v>
+        <v>3.236043184068401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0007090084499999999</v>
+        <v>2.186136057949423</v>
       </c>
       <c r="D15">
-        <v>121.14151</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="E15">
-        <v>0.0007090084499999999</v>
+        <v>2.186136057949423</v>
       </c>
       <c r="F15">
-        <v>-0.012240956</v>
+        <v>0.8380914577152756</v>
       </c>
       <c r="G15">
-        <v>-0.0067091534</v>
+        <v>0.9882602071112636</v>
       </c>
       <c r="H15">
-        <v>-0.0017802751</v>
+        <v>0.9303867290198072</v>
       </c>
       <c r="I15">
-        <v>0.010282672</v>
+        <v>0.5653912462383196</v>
       </c>
       <c r="J15">
-        <v>121.14151</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>1.198134834335627</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>0.8380914577152756</v>
       </c>
       <c r="M15">
-        <v>-0.005765973775000001</v>
+        <v>1.51211375783235</v>
       </c>
       <c r="N15">
-        <v>-0.005765973775000001</v>
+        <v>1.51211375783235</v>
       </c>
       <c r="O15">
-        <v>-0.00443740755</v>
+        <v>1.318204748228169</v>
       </c>
       <c r="P15">
-        <v>40.37665935081667</v>
+        <v>1.407454116666775</v>
       </c>
       <c r="Q15">
-        <v>40.37665935081667</v>
+        <v>1.407454116666775</v>
       </c>
       <c r="R15">
-        <v>60.5678720131125</v>
+        <v>1.355124296083988</v>
       </c>
       <c r="S15">
-        <v>60.5678720131125</v>
+        <v>1.355124296083988</v>
       </c>
       <c r="T15">
-        <v>20.188628549325</v>
+        <v>1.11773342206162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.00098077107</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D16">
-        <v>-0.012241339</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="E16">
-        <v>-0.00098077107</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F16">
-        <v>60.5637</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="G16">
-        <v>-0.00029279457</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="H16">
-        <v>0.0051620706</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="I16">
-        <v>-0.016129659</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="J16">
-        <v>-0.012241339</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="K16">
-        <v>-0.012241339</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L16">
-        <v>60.5637</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M16">
-        <v>30.281359614465</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N16">
-        <v>30.281359614465</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O16">
-        <v>20.18929376651</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P16">
-        <v>20.18349262997667</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q16">
-        <v>20.18349262997667</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R16">
-        <v>15.1345591377325</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S16">
-        <v>15.1345591377325</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T16">
-        <v>10.08986958449333</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.6439568</v>
+        <v>0.0007090084499999999</v>
       </c>
       <c r="D17">
-        <v>-0.002943181</v>
+        <v>121.14151</v>
       </c>
       <c r="E17">
-        <v>5.6439568</v>
+        <v>0.0007090084499999999</v>
       </c>
       <c r="F17">
-        <v>0.008133303200000001</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G17">
-        <v>0.0047377431</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H17">
-        <v>-0.018902806</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I17">
-        <v>-0.0017118641</v>
+        <v>0.010282672</v>
       </c>
       <c r="J17">
-        <v>-0.002943181</v>
+        <v>121.14151</v>
       </c>
       <c r="K17">
-        <v>-0.002943181</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>0.008133303200000001</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>2.8260450516</v>
+        <v>-0.005765973775000001</v>
       </c>
       <c r="N17">
-        <v>2.8260450516</v>
+        <v>-0.005765973775000001</v>
       </c>
       <c r="O17">
-        <v>1.877729099066667</v>
+        <v>-0.00443740755</v>
       </c>
       <c r="P17">
-        <v>1.883048974066667</v>
+        <v>40.37665935081667</v>
       </c>
       <c r="Q17">
-        <v>1.883048974066667</v>
+        <v>40.37665935081667</v>
       </c>
       <c r="R17">
-        <v>1.4115509353</v>
+        <v>60.5678720131125</v>
       </c>
       <c r="S17">
-        <v>1.4115509353</v>
+        <v>60.5678720131125</v>
       </c>
       <c r="T17">
-        <v>0.9388783325333333</v>
+        <v>20.188628549325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.007367114473013696</v>
+        <v>-0.00098077107</v>
       </c>
       <c r="D18">
-        <v>12.86654070682191</v>
+        <v>-0.012241339</v>
       </c>
       <c r="E18">
-        <v>0.007367114473013696</v>
+        <v>-0.00098077107</v>
       </c>
       <c r="F18">
-        <v>5.606671850460272</v>
+        <v>60.5637</v>
       </c>
       <c r="G18">
-        <v>5.435811163525753</v>
+        <v>-0.00029279457</v>
       </c>
       <c r="H18">
-        <v>0.001481221851232877</v>
+        <v>0.0051620706</v>
       </c>
       <c r="I18">
-        <v>0.009017744438356168</v>
+        <v>-0.016129659</v>
       </c>
       <c r="J18">
-        <v>12.86654070682191</v>
+        <v>-0.012241339</v>
       </c>
       <c r="K18">
-        <v>12.86654070682191</v>
+        <v>-0.012241339</v>
       </c>
       <c r="L18">
-        <v>5.606671850460272</v>
+        <v>60.5637</v>
       </c>
       <c r="M18">
-        <v>2.807019482466643</v>
+        <v>30.281359614465</v>
       </c>
       <c r="N18">
-        <v>2.807019482466643</v>
+        <v>30.281359614465</v>
       </c>
       <c r="O18">
-        <v>1.871840062261506</v>
+        <v>20.18929376651</v>
       </c>
       <c r="P18">
-        <v>6.160193223918398</v>
+        <v>20.18349262997667</v>
       </c>
       <c r="Q18">
-        <v>6.160193223918399</v>
+        <v>20.18349262997667</v>
       </c>
       <c r="R18">
-        <v>7.836780094644277</v>
+        <v>15.1345591377325</v>
       </c>
       <c r="S18">
-        <v>7.836780094644277</v>
+        <v>15.1345591377325</v>
       </c>
       <c r="T18">
-        <v>3.987814966928423</v>
+        <v>10.08986958449333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.154208099054211</v>
+        <v>5.6439568</v>
       </c>
       <c r="D19">
-        <v>3.577001580099473</v>
+        <v>-0.002943181</v>
       </c>
       <c r="E19">
-        <v>7.154208099054211</v>
+        <v>5.6439568</v>
       </c>
       <c r="F19">
-        <v>5.160669539423158</v>
+        <v>0.008133303200000001</v>
       </c>
       <c r="G19">
-        <v>-0.006935671732105264</v>
+        <v>0.0047377431</v>
       </c>
       <c r="H19">
-        <v>0.001693879303157895</v>
+        <v>-0.018902806</v>
       </c>
       <c r="I19">
-        <v>15.48622742441474</v>
+        <v>-0.0017118641</v>
       </c>
       <c r="J19">
-        <v>3.577001580099473</v>
+        <v>-0.002943181</v>
       </c>
       <c r="K19">
-        <v>3.577001580099473</v>
+        <v>-0.002943181</v>
       </c>
       <c r="L19">
-        <v>5.160669539423158</v>
+        <v>0.008133303200000001</v>
       </c>
       <c r="M19">
-        <v>6.157438819238685</v>
+        <v>2.8260450516</v>
       </c>
       <c r="N19">
-        <v>6.157438819238685</v>
+        <v>2.8260450516</v>
       </c>
       <c r="O19">
-        <v>4.105523839260176</v>
+        <v>1.877729099066667</v>
       </c>
       <c r="P19">
-        <v>5.297293072858948</v>
+        <v>1.883048974066667</v>
       </c>
       <c r="Q19">
-        <v>5.297293072858948</v>
+        <v>1.883048974066667</v>
       </c>
       <c r="R19">
-        <v>4.867220199669079</v>
+        <v>1.4115509353</v>
       </c>
       <c r="S19">
-        <v>4.867220199669079</v>
+        <v>1.4115509353</v>
       </c>
       <c r="T19">
-        <v>5.228810808427107</v>
+        <v>0.9388783325333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.0003928710393684206</v>
+        <v>0.007367114473013696</v>
       </c>
       <c r="D20">
-        <v>6.779364075847369</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="E20">
-        <v>0.0003928710393684206</v>
+        <v>0.007367114473013696</v>
       </c>
       <c r="F20">
-        <v>0.001688891184210526</v>
+        <v>5.606671850460272</v>
       </c>
       <c r="G20">
-        <v>1.633350082278947</v>
+        <v>5.435811163525753</v>
       </c>
       <c r="H20">
-        <v>0.001051524914736841</v>
+        <v>0.001481221851232877</v>
       </c>
       <c r="I20">
-        <v>10.16303285720106</v>
+        <v>0.009017744438356168</v>
       </c>
       <c r="J20">
-        <v>6.779364075847369</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="K20">
-        <v>6.779364075847369</v>
+        <v>12.86654070682191</v>
       </c>
       <c r="L20">
-        <v>0.001688891184210526</v>
+        <v>5.606671850460272</v>
       </c>
       <c r="M20">
-        <v>0.001040881111789473</v>
+        <v>2.807019482466643</v>
       </c>
       <c r="N20">
-        <v>0.001040881111789473</v>
+        <v>2.807019482466643</v>
       </c>
       <c r="O20">
-        <v>0.001044429046105263</v>
+        <v>1.871840062261506</v>
       </c>
       <c r="P20">
-        <v>2.260481946023649</v>
+        <v>6.160193223918398</v>
       </c>
       <c r="Q20">
-        <v>2.260481946023649</v>
+        <v>6.160193223918399</v>
       </c>
       <c r="R20">
-        <v>3.390202478479579</v>
+        <v>7.836780094644277</v>
       </c>
       <c r="S20">
-        <v>3.390202478479579</v>
+        <v>7.836780094644277</v>
       </c>
       <c r="T20">
-        <v>3.096480050410948</v>
+        <v>3.987814966928423</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2715115605015893</v>
+        <v>7.154208099054211</v>
       </c>
       <c r="D21">
-        <v>-0.0005954403700143299</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="E21">
-        <v>0.2715115605015893</v>
+        <v>7.154208099054211</v>
       </c>
       <c r="F21">
-        <v>0.9358572889879052</v>
+        <v>5.160669539423158</v>
       </c>
       <c r="G21">
-        <v>0.1463567321083623</v>
+        <v>-0.006935671732105264</v>
       </c>
       <c r="H21">
-        <v>1.878268911550419</v>
+        <v>0.001693879303157895</v>
       </c>
       <c r="I21">
-        <v>0.001578101097184428</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="J21">
-        <v>-0.0005954403700143299</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="K21">
-        <v>-0.0005954403700143299</v>
+        <v>3.577001580099473</v>
       </c>
       <c r="L21">
-        <v>0.9358572889879052</v>
+        <v>5.160669539423158</v>
       </c>
       <c r="M21">
-        <v>0.6036844247447473</v>
+        <v>6.157438819238685</v>
       </c>
       <c r="N21">
-        <v>0.6036844247447473</v>
+        <v>6.157438819238685</v>
       </c>
       <c r="O21">
-        <v>1.028545920346638</v>
+        <v>4.105523839260176</v>
       </c>
       <c r="P21">
-        <v>0.4022578030398267</v>
+        <v>5.297293072858948</v>
       </c>
       <c r="Q21">
-        <v>0.4022578030398267</v>
+        <v>5.297293072858948</v>
       </c>
       <c r="R21">
-        <v>0.3015444921873665</v>
+        <v>4.867220199669079</v>
       </c>
       <c r="S21">
-        <v>0.3015444921873665</v>
+        <v>4.867220199669079</v>
       </c>
       <c r="T21">
-        <v>0.5388295256459076</v>
+        <v>5.228810808427107</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1784394793583272</v>
+        <v>0.0003928710393684206</v>
       </c>
       <c r="D22">
-        <v>0.02655081735166421</v>
+        <v>6.779364075847369</v>
       </c>
       <c r="E22">
-        <v>0.1784394793583272</v>
+        <v>0.0003928710393684206</v>
       </c>
       <c r="F22">
-        <v>0.976678839267058</v>
+        <v>0.001688891184210526</v>
       </c>
       <c r="G22">
-        <v>0.1391531486644672</v>
+        <v>1.633350082278947</v>
       </c>
       <c r="H22">
-        <v>1.42463830941264</v>
+        <v>0.001051524914736841</v>
       </c>
       <c r="I22">
-        <v>0.070398530168358</v>
+        <v>10.16303285720106</v>
       </c>
       <c r="J22">
-        <v>0.02655081735166421</v>
+        <v>6.779364075847369</v>
       </c>
       <c r="K22">
-        <v>0.02655081735166421</v>
+        <v>6.779364075847369</v>
       </c>
       <c r="L22">
-        <v>0.976678839267058</v>
+        <v>0.001688891184210526</v>
       </c>
       <c r="M22">
-        <v>0.5775591593126925</v>
+        <v>0.001040881111789473</v>
       </c>
       <c r="N22">
-        <v>0.5775591593126925</v>
+        <v>0.001040881111789473</v>
       </c>
       <c r="O22">
-        <v>0.8599188760126749</v>
+        <v>0.001044429046105263</v>
       </c>
       <c r="P22">
-        <v>0.3938897119923497</v>
+        <v>2.260481946023649</v>
       </c>
       <c r="Q22">
-        <v>0.3938897119923498</v>
+        <v>2.260481946023649</v>
       </c>
       <c r="R22">
-        <v>0.3020549883321784</v>
+        <v>3.390202478479579</v>
       </c>
       <c r="S22">
-        <v>0.3020549883321784</v>
+        <v>3.390202478479579</v>
       </c>
       <c r="T22">
-        <v>0.4693098540370859</v>
+        <v>3.096480050410948</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.01007267612593674</v>
+        <v>0.2715115605015893</v>
       </c>
       <c r="D23">
-        <v>1.64490734035368</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="E23">
-        <v>0.01007267612593674</v>
+        <v>0.2715115605015893</v>
       </c>
       <c r="F23">
-        <v>0.3478938515409021</v>
+        <v>0.9358572889879052</v>
       </c>
       <c r="G23">
-        <v>1.244436136280289</v>
+        <v>0.1463567321083623</v>
       </c>
       <c r="H23">
-        <v>1.137821563375036</v>
+        <v>1.878268911550419</v>
       </c>
       <c r="I23">
-        <v>0.001600312871969344</v>
+        <v>0.001578101097184428</v>
       </c>
       <c r="J23">
-        <v>1.64490734035368</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="K23">
-        <v>1.64490734035368</v>
+        <v>-0.0005954403700143299</v>
       </c>
       <c r="L23">
-        <v>0.3478938515409021</v>
+        <v>0.9358572889879052</v>
       </c>
       <c r="M23">
-        <v>0.1789832638334194</v>
+        <v>0.6036844247447473</v>
       </c>
       <c r="N23">
-        <v>0.1789832638334194</v>
+        <v>0.6036844247447473</v>
       </c>
       <c r="O23">
-        <v>0.4985960303472918</v>
+        <v>1.028545920346638</v>
       </c>
       <c r="P23">
-        <v>0.6676246226735064</v>
+        <v>0.4022578030398267</v>
       </c>
       <c r="Q23">
-        <v>0.6676246226735064</v>
+        <v>0.4022578030398267</v>
       </c>
       <c r="R23">
-        <v>0.9119453020935498</v>
+        <v>0.3015444921873665</v>
       </c>
       <c r="S23">
-        <v>0.9119453020935498</v>
+        <v>0.3015444921873665</v>
       </c>
       <c r="T23">
-        <v>0.7311219800913024</v>
+        <v>0.5388295256459076</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.650080278019375</v>
+        <v>0.1784394793583272</v>
       </c>
       <c r="D24">
-        <v>1.928483279126137</v>
+        <v>0.02655081735166421</v>
       </c>
       <c r="E24">
-        <v>1.650080278019375</v>
+        <v>0.1784394793583272</v>
       </c>
       <c r="F24">
-        <v>1.633503072583994</v>
+        <v>0.976678839267058</v>
       </c>
       <c r="G24">
-        <v>1.436313605266379</v>
+        <v>0.1391531486644672</v>
       </c>
       <c r="H24">
-        <v>0.5303135410767813</v>
+        <v>1.42463830941264</v>
       </c>
       <c r="I24">
-        <v>0.05656664647616127</v>
+        <v>0.070398530168358</v>
       </c>
       <c r="J24">
-        <v>1.928483279126137</v>
+        <v>0.02655081735166421</v>
       </c>
       <c r="K24">
-        <v>1.928483279126137</v>
+        <v>0.02655081735166421</v>
       </c>
       <c r="L24">
-        <v>1.633503072583994</v>
+        <v>0.976678839267058</v>
       </c>
       <c r="M24">
-        <v>1.641791675301685</v>
+        <v>0.5775591593126925</v>
       </c>
       <c r="N24">
-        <v>1.641791675301685</v>
+        <v>0.5775591593126925</v>
       </c>
       <c r="O24">
-        <v>1.271298963893383</v>
+        <v>0.8599188760126749</v>
       </c>
       <c r="P24">
-        <v>1.737355543243169</v>
+        <v>0.3938897119923497</v>
       </c>
       <c r="Q24">
-        <v>1.737355543243169</v>
+        <v>0.3938897119923498</v>
       </c>
       <c r="R24">
-        <v>1.785137477213911</v>
+        <v>0.3020549883321784</v>
       </c>
       <c r="S24">
-        <v>1.785137477213911</v>
+        <v>0.3020549883321784</v>
       </c>
       <c r="T24">
-        <v>1.205876737091471</v>
+        <v>0.4693098540370859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.004881674851795735</v>
+        <v>0.01007267612593674</v>
       </c>
       <c r="D25">
-        <v>0.9223044769220224</v>
+        <v>1.64490734035368</v>
       </c>
       <c r="E25">
-        <v>0.004881674851795735</v>
+        <v>0.01007267612593674</v>
       </c>
       <c r="F25">
-        <v>0.01547329992016358</v>
+        <v>0.3478938515409021</v>
       </c>
       <c r="G25">
-        <v>1.102641403758592</v>
+        <v>1.244436136280289</v>
       </c>
       <c r="H25">
-        <v>2.894408448559106</v>
+        <v>1.137821563375036</v>
       </c>
       <c r="I25">
-        <v>0.002969863902782885</v>
+        <v>0.001600312871969344</v>
       </c>
       <c r="J25">
-        <v>0.9223044769220224</v>
+        <v>1.64490734035368</v>
       </c>
       <c r="K25">
-        <v>0.9223044769220224</v>
+        <v>1.64490734035368</v>
       </c>
       <c r="L25">
-        <v>0.01547329992016358</v>
+        <v>0.3478938515409021</v>
       </c>
       <c r="M25">
-        <v>0.01017748738597966</v>
+        <v>0.1789832638334194</v>
       </c>
       <c r="N25">
-        <v>0.01017748738597966</v>
+        <v>0.1789832638334194</v>
       </c>
       <c r="O25">
-        <v>0.9715878077770218</v>
+        <v>0.4985960303472918</v>
       </c>
       <c r="P25">
-        <v>0.3142198172313272</v>
+        <v>0.6676246226735064</v>
       </c>
       <c r="Q25">
-        <v>0.3142198172313272</v>
+        <v>0.6676246226735064</v>
       </c>
       <c r="R25">
-        <v>0.466240982154001</v>
+        <v>0.9119453020935498</v>
       </c>
       <c r="S25">
-        <v>0.466240982154001</v>
+        <v>0.9119453020935498</v>
       </c>
       <c r="T25">
-        <v>0.8237798613190771</v>
+        <v>0.7311219800913024</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>3.589459224956266</v>
+        <v>1.650080278019375</v>
       </c>
       <c r="D26">
-        <v>0.01097934175702442</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="E26">
-        <v>3.589459224956266</v>
+        <v>1.650080278019375</v>
       </c>
       <c r="F26">
-        <v>1.423341406150485</v>
+        <v>1.633503072583994</v>
       </c>
       <c r="G26">
-        <v>0.4681267379781202</v>
+        <v>1.436313605266379</v>
       </c>
       <c r="H26">
-        <v>0.1778836063480327</v>
+        <v>0.5303135410767813</v>
       </c>
       <c r="I26">
-        <v>0.06055689808787203</v>
+        <v>0.05656664647616127</v>
       </c>
       <c r="J26">
-        <v>0.01097934175702442</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="K26">
-        <v>0.01097934175702442</v>
+        <v>1.928483279126137</v>
       </c>
       <c r="L26">
-        <v>1.423341406150485</v>
+        <v>1.633503072583994</v>
       </c>
       <c r="M26">
-        <v>2.506400315553376</v>
+        <v>1.641791675301685</v>
       </c>
       <c r="N26">
-        <v>2.506400315553376</v>
+        <v>1.641791675301685</v>
       </c>
       <c r="O26">
-        <v>1.730228079151595</v>
+        <v>1.271298963893383</v>
       </c>
       <c r="P26">
-        <v>1.674593324287925</v>
+        <v>1.737355543243169</v>
       </c>
       <c r="Q26">
-        <v>1.674593324287925</v>
+        <v>1.737355543243169</v>
       </c>
       <c r="R26">
-        <v>1.2586898286552</v>
+        <v>1.785137477213911</v>
       </c>
       <c r="S26">
-        <v>1.2586898286552</v>
+        <v>1.785137477213911</v>
       </c>
       <c r="T26">
-        <v>0.9550578692129666</v>
+        <v>1.205876737091471</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.004695097501472879</v>
+        <v>0.004881674851795735</v>
       </c>
       <c r="D27">
-        <v>1.093168018539161</v>
+        <v>0.9223044769220224</v>
       </c>
       <c r="E27">
-        <v>-0.004695097501472879</v>
+        <v>0.004881674851795735</v>
       </c>
       <c r="F27">
-        <v>0.002888269203067813</v>
+        <v>0.01547329992016358</v>
       </c>
       <c r="G27">
-        <v>0.03555433805706877</v>
+        <v>1.102641403758592</v>
       </c>
       <c r="H27">
-        <v>4.961300656410549</v>
+        <v>2.894408448559106</v>
       </c>
       <c r="I27">
-        <v>20.82261733267055</v>
+        <v>0.002969863902782885</v>
       </c>
       <c r="J27">
-        <v>1.093168018539161</v>
+        <v>0.9223044769220224</v>
       </c>
       <c r="K27">
-        <v>1.093168018539161</v>
+        <v>0.9223044769220224</v>
       </c>
       <c r="L27">
-        <v>0.002888269203067813</v>
+        <v>0.01547329992016358</v>
       </c>
       <c r="M27">
-        <v>-0.0009034141492025333</v>
+        <v>0.01017748738597966</v>
       </c>
       <c r="N27">
-        <v>-0.0009034141492025333</v>
+        <v>0.01017748738597966</v>
       </c>
       <c r="O27">
-        <v>1.653164609370714</v>
+        <v>0.9715878077770218</v>
       </c>
       <c r="P27">
-        <v>0.3637870634135854</v>
+        <v>0.3142198172313272</v>
       </c>
       <c r="Q27">
-        <v>0.3637870634135854</v>
+        <v>0.3142198172313272</v>
       </c>
       <c r="R27">
-        <v>0.5461323021949793</v>
+        <v>0.466240982154001</v>
       </c>
       <c r="S27">
-        <v>0.5461323021949793</v>
+        <v>0.466240982154001</v>
       </c>
       <c r="T27">
-        <v>4.485138919563154</v>
+        <v>0.8237798613190771</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>21.48570290890621</v>
+        <v>3.589459224956266</v>
       </c>
       <c r="D28">
-        <v>0.008186402230637468</v>
+        <v>0.01097934175702442</v>
       </c>
       <c r="E28">
-        <v>21.48570290890621</v>
+        <v>3.589459224956266</v>
       </c>
       <c r="F28">
-        <v>0.006467247909546631</v>
+        <v>1.423341406150485</v>
       </c>
       <c r="G28">
-        <v>4.455883908717083</v>
+        <v>0.4681267379781202</v>
       </c>
       <c r="H28">
-        <v>-0.00520480036438995</v>
+        <v>0.1778836063480327</v>
       </c>
       <c r="I28">
-        <v>-0.000465881598878098</v>
+        <v>0.06055689808787203</v>
       </c>
       <c r="J28">
-        <v>0.008186402230637468</v>
+        <v>0.01097934175702442</v>
       </c>
       <c r="K28">
-        <v>0.008186402230637468</v>
+        <v>0.01097934175702442</v>
       </c>
       <c r="L28">
-        <v>0.006467247909546631</v>
+        <v>1.423341406150485</v>
       </c>
       <c r="M28">
-        <v>10.74608507840788</v>
+        <v>2.506400315553376</v>
       </c>
       <c r="N28">
-        <v>10.74608507840788</v>
+        <v>2.506400315553376</v>
       </c>
       <c r="O28">
-        <v>7.16232178548379</v>
+        <v>1.730228079151595</v>
       </c>
       <c r="P28">
-        <v>7.166785519682133</v>
+        <v>1.674593324287925</v>
       </c>
       <c r="Q28">
-        <v>7.166785519682133</v>
+        <v>1.674593324287925</v>
       </c>
       <c r="R28">
-        <v>5.377135740319259</v>
+        <v>1.2586898286552</v>
       </c>
       <c r="S28">
-        <v>5.377135740319259</v>
+        <v>1.2586898286552</v>
       </c>
       <c r="T28">
-        <v>4.325094964300036</v>
+        <v>0.9550578692129666</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.004695097501472879</v>
+      </c>
+      <c r="D29">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="E29">
+        <v>-0.004695097501472879</v>
+      </c>
+      <c r="F29">
+        <v>0.002888269203067813</v>
+      </c>
+      <c r="G29">
+        <v>0.03555433805706877</v>
+      </c>
+      <c r="H29">
+        <v>4.961300656410549</v>
+      </c>
+      <c r="I29">
+        <v>20.82261733267055</v>
+      </c>
+      <c r="J29">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="K29">
+        <v>1.093168018539161</v>
+      </c>
+      <c r="L29">
+        <v>0.002888269203067813</v>
+      </c>
+      <c r="M29">
+        <v>-0.0009034141492025333</v>
+      </c>
+      <c r="N29">
+        <v>-0.0009034141492025333</v>
+      </c>
+      <c r="O29">
+        <v>1.653164609370714</v>
+      </c>
+      <c r="P29">
+        <v>0.3637870634135854</v>
+      </c>
+      <c r="Q29">
+        <v>0.3637870634135854</v>
+      </c>
+      <c r="R29">
+        <v>0.5461323021949793</v>
+      </c>
+      <c r="S29">
+        <v>0.5461323021949793</v>
+      </c>
+      <c r="T29">
+        <v>4.485138919563154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>21.48570290890621</v>
+      </c>
+      <c r="D30">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="E30">
+        <v>21.48570290890621</v>
+      </c>
+      <c r="F30">
+        <v>0.006467247909546631</v>
+      </c>
+      <c r="G30">
+        <v>4.455883908717083</v>
+      </c>
+      <c r="H30">
+        <v>-0.00520480036438995</v>
+      </c>
+      <c r="I30">
+        <v>-0.000465881598878098</v>
+      </c>
+      <c r="J30">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="K30">
+        <v>0.008186402230637468</v>
+      </c>
+      <c r="L30">
+        <v>0.006467247909546631</v>
+      </c>
+      <c r="M30">
+        <v>10.74608507840788</v>
+      </c>
+      <c r="N30">
+        <v>10.74608507840788</v>
+      </c>
+      <c r="O30">
+        <v>7.16232178548379</v>
+      </c>
+      <c r="P30">
+        <v>7.166785519682133</v>
+      </c>
+      <c r="Q30">
+        <v>7.166785519682133</v>
+      </c>
+      <c r="R30">
+        <v>5.377135740319259</v>
+      </c>
+      <c r="S30">
+        <v>5.377135740319259</v>
+      </c>
+      <c r="T30">
+        <v>4.325094964300036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>48.33484156575361</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.008296502992262325</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>48.33484156575361</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.005348736384947822</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.007184930302253205</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.008960343406062429</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.008382810576539673</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.008296502992262325</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.008296502992262325</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.005348736384947822</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>24.17009515106928</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>24.17009515106928</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>16.11040998624417</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>16.11616226837694</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>16.11616226837694</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>12.08919582703077</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>12.08919582703077</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>8.056388096908412</v>
       </c>
     </row>
